--- a/BackTest/2020-01-14 BackTest TRX.xlsx
+++ b/BackTest/2020-01-14 BackTest TRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>876492.1779222803</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>876492.1779222803</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>887646.8005222803</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>777134.6750222803</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>777134.6750222803</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>776743.4427222803</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>776743.4427222803</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>776743.4427222803</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>743551.9209222803</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>445590.0634222803</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>819168.4212222804</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>808482.3030222803</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>533120.5513222803</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>561060.7291222803</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>561060.7291222803</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-257534.6781777197</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-259966.2452777197</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-486756.6735777197</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-481177.2214777197</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-519631.7401777197</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>326728.2373222803</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>455575.1575222803</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>455575.1575222803</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>568062.2210222803</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>568062.2210222803</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>1194319.105822281</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>1194319.105822281</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>934319.1058222805</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>934199.1058222805</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>948500.4688222805</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>948500.4688222805</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>951990.4688222805</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>956403.4188222805</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>1686813.46152228</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>1686813.46152228</v>
       </c>
       <c r="H89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>1684074.10742228</v>
       </c>
       <c r="H90" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>1684074.10742228</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>1726152.37182228</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>1726152.37182228</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>1927154.83382228</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>1822726.47602228</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>1832312.53602228</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>1832312.53602228</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>1815819.45012228</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>1823114.39012228</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>1970893.63802228</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>1970893.63802228</v>
       </c>
       <c r="H111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>1970893.63802228</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>1970893.63802228</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>1970893.63802228</v>
       </c>
       <c r="H114" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>1970893.63802228</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>1970893.63802228</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>2192317.202022281</v>
       </c>
       <c r="H117" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>2192317.202022281</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>2064810.96662228</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>2064810.96662228</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>2537052.32412228</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>2537052.32412228</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>2519787.22412228</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>2519110.19502228</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>2516526.56502228</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>2516599.822322281</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>2486623.059322281</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>2486623.059322281</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>2486445.204322281</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>2475734.164322281</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>2480085.111122281</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>2480085.111122281</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>2419482.341322281</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>2419482.341322281</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>2419482.341322281</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>2419482.341322281</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>2419482.341322281</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>2419482.341322281</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>2619482.341322281</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>2628584.382422281</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>2364495.315985991</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>2364495.315985991</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>2411929.915985991</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>2384411.288185991</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>2404953.358885991</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>2404953.358885991</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>2231225.366285991</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>2231225.366285991</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>2098424.099185992</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>2098621.551792622</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>2098621.551792622</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>2096867.871992622</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>2126968.050692622</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>2615982.193992622</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>3229712.150314432</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>3229712.150314432</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>3177818.150314432</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>3626364.062714431</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>1780492.349114432</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>1687003.799114431</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>1787003.799114431</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>1602549.469214431</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>1592732.716814431</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>1609317.859614431</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>1509317.859614431</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>1507317.859614431</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>1507317.859614431</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>1640883.093914432</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>1617894.070714432</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>1617894.070714432</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>1717894.070714432</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>257867.5386144316</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>241368.6933144316</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>235298.4871144317</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>503959.7089144316</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>503959.7089144316</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>503959.7089144316</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>503959.7089144316</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>712420.5627144317</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>712420.5627144317</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>712420.5627144317</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>706193.4180144317</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>1310945.626414432</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>1166194.652914432</v>
       </c>
       <c r="H258" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>1163176.448014432</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>1164356.468014432</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>1157841.580614432</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>1157841.580614432</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>1315642.214314432</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>1234537.655614432</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>367870.6556144319</v>
       </c>
       <c r="H270" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-587123.339284858</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -12067,11 +12067,17 @@
         <v>-60684405.5994943</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I354" t="n">
+        <v>16.51</v>
+      </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12100,11 +12106,17 @@
         <v>-60684405.5994943</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I355" t="n">
+        <v>16.5</v>
+      </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12133,11 +12145,17 @@
         <v>-60684345.1032943</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I356" t="n">
+        <v>16.5</v>
+      </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12166,11 +12184,17 @@
         <v>-60689532.9232943</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I357" t="n">
+        <v>16.53</v>
+      </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12199,11 +12223,17 @@
         <v>-60689532.9232943</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>16.5</v>
+      </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12232,11 +12262,17 @@
         <v>-60689532.9232943</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>16.5</v>
+      </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12265,11 +12301,17 @@
         <v>-60495724.30415637</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>16.5</v>
+      </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12298,11 +12340,17 @@
         <v>-60495724.30415637</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>16.51</v>
+      </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12331,11 +12379,17 @@
         <v>-60465533.46685637</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I362" t="n">
+        <v>16.51</v>
+      </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12364,11 +12418,17 @@
         <v>-60470847.70685637</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>16.52</v>
+      </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12397,11 +12457,17 @@
         <v>-60470847.70685637</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I364" t="n">
+        <v>16.51</v>
+      </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12430,11 +12496,17 @@
         <v>-60470847.70685637</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I365" t="n">
+        <v>16.51</v>
+      </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12463,11 +12535,17 @@
         <v>-60470847.70685637</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I366" t="n">
+        <v>16.51</v>
+      </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12496,11 +12574,17 @@
         <v>-60478886.82685637</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>16.51</v>
+      </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12529,11 +12613,17 @@
         <v>-59973403.62055637</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>16.5</v>
+      </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12562,11 +12652,17 @@
         <v>-59961938.92055637</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>16.51</v>
+      </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12595,11 +12691,17 @@
         <v>-59873464.12715637</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>16.53</v>
+      </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12632,7 +12734,11 @@
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12665,7 +12771,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12694,11 +12804,17 @@
         <v>-60145747.32815637</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>16.51</v>
+      </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12731,7 +12847,11 @@
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12764,7 +12884,11 @@
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12797,7 +12921,11 @@
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12830,7 +12958,11 @@
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12863,7 +12995,11 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12896,7 +13032,11 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12929,7 +13069,11 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12962,7 +13106,11 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -12995,7 +13143,11 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13028,7 +13180,11 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13061,7 +13217,11 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13094,7 +13254,11 @@
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13127,7 +13291,11 @@
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13160,7 +13328,11 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13193,7 +13365,11 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13222,11 +13398,17 @@
         <v>-60778986.6780039</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>16.52</v>
+      </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13255,11 +13437,17 @@
         <v>-60778986.6780039</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>16.5</v>
+      </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13288,11 +13476,17 @@
         <v>-60778986.6780039</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>16.5</v>
+      </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13321,11 +13515,17 @@
         <v>-60778986.6780039</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>16.5</v>
+      </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13354,11 +13554,17 @@
         <v>-60778986.6780039</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>16.5</v>
+      </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13387,11 +13593,17 @@
         <v>-60778986.6780039</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>16.5</v>
+      </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13420,11 +13632,17 @@
         <v>-60776507.6872039</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>16.5</v>
+      </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13453,11 +13671,17 @@
         <v>-60884831.9558039</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>16.51</v>
+      </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13486,11 +13710,17 @@
         <v>-60884831.9558039</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>16.5</v>
+      </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13519,11 +13749,17 @@
         <v>-60884831.9558039</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>16.5</v>
+      </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13552,11 +13788,17 @@
         <v>-60884831.9558039</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>16.5</v>
+      </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13585,11 +13827,17 @@
         <v>-60884831.9558039</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>16.5</v>
+      </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13618,11 +13866,17 @@
         <v>-60822046.6646039</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>16.5</v>
+      </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13651,11 +13905,17 @@
         <v>-60822046.6646039</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>16.51</v>
+      </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13684,11 +13944,17 @@
         <v>-60822046.6646039</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>16.51</v>
+      </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13717,11 +13983,17 @@
         <v>-60822046.6646039</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>16.51</v>
+      </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13750,11 +14022,17 @@
         <v>-60822046.6646039</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>16.51</v>
+      </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13783,11 +14061,17 @@
         <v>-60822046.6646039</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>16.51</v>
+      </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13816,11 +14100,17 @@
         <v>-60822046.6646039</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>16.51</v>
+      </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13849,11 +14139,17 @@
         <v>-60822046.6646039</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>16.51</v>
+      </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13882,11 +14178,17 @@
         <v>-60742339.63390391</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>16.51</v>
+      </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13915,11 +14217,17 @@
         <v>-60974758.68540391</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>16.52</v>
+      </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -13948,11 +14256,17 @@
         <v>-60974758.68540391</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>16.51</v>
+      </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -13981,11 +14295,17 @@
         <v>-60974758.68540391</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>16.51</v>
+      </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14014,11 +14334,17 @@
         <v>-61073299.51390391</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>16.51</v>
+      </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14047,11 +14373,17 @@
         <v>-61178367.70780391</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>16.5</v>
+      </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14080,11 +14412,17 @@
         <v>-61173271.3614039</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>16.48</v>
+      </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14113,11 +14451,17 @@
         <v>-61198763.2601039</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>16.5</v>
+      </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14146,11 +14490,17 @@
         <v>-61309534.0905039</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>16.48</v>
+      </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14179,11 +14529,17 @@
         <v>-61379598.0341039</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>16.47</v>
+      </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14212,15 +14568,17 @@
         <v>-61367117.22050342</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I419" t="n">
         <v>16.45</v>
       </c>
-      <c r="J419" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="K419" t="inlineStr"/>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14249,15 +14607,15 @@
         <v>-61369511.70860342</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>16.45</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L420" t="n">
@@ -14288,17 +14646,15 @@
         <v>-61368728.26350342</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I421" t="n">
         <v>16.45</v>
       </c>
-      <c r="J421" t="n">
-        <v>16.45</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L421" t="n">
@@ -14329,15 +14685,17 @@
         <v>-61368728.26350342</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I422" t="n">
         <v>16.47</v>
       </c>
-      <c r="J422" t="n">
-        <v>16.47</v>
-      </c>
-      <c r="K422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14366,17 +14724,15 @@
         <v>-61369904.70660342</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I423" t="n">
         <v>16.47</v>
       </c>
-      <c r="J423" t="n">
-        <v>16.47</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L423" t="n">
@@ -14407,17 +14763,15 @@
         <v>-61369904.7065039</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I424" t="n">
         <v>16.46</v>
       </c>
-      <c r="J424" t="n">
-        <v>16.47</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L424" t="n">
@@ -14448,15 +14802,17 @@
         <v>-61364364.5403039</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I425" t="n">
         <v>16.47</v>
       </c>
-      <c r="J425" t="n">
-        <v>16.47</v>
-      </c>
-      <c r="K425" t="inlineStr"/>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14485,17 +14841,15 @@
         <v>-61197572.5227039</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I426" t="n">
         <v>16.48</v>
       </c>
-      <c r="J426" t="n">
-        <v>16.47</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L426" t="n">
@@ -14526,17 +14880,15 @@
         <v>-61197572.5227039</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I427" t="n">
         <v>16.5</v>
       </c>
-      <c r="J427" t="n">
-        <v>16.47</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L427" t="n">
@@ -14567,15 +14919,17 @@
         <v>-61116467.7855039</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I428" t="n">
         <v>16.5</v>
       </c>
-      <c r="J428" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="K428" t="inlineStr"/>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14604,17 +14958,15 @@
         <v>-60870035.4312039</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I429" t="n">
         <v>16.51</v>
       </c>
-      <c r="J429" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L429" t="n">
@@ -14645,12 +14997,12 @@
         <v>-60864246.21202507</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>16.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14684,12 +15036,12 @@
         <v>-61488303.02172507</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>16.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14723,12 +15075,12 @@
         <v>-61482028.71223281</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
         <v>16.5</v>
       </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14762,12 +15114,12 @@
         <v>-61580060.02123281</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
-      </c>
-      <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>16.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I433" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14801,12 +15153,12 @@
         <v>-61458126.73043282</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>16.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14840,12 +15192,12 @@
         <v>-61458126.73043282</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>16.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14879,12 +15231,12 @@
         <v>-61402166.83932575</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>16.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14918,12 +15270,12 @@
         <v>-61433431.92332575</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
-      </c>
-      <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>16.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I437" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14957,12 +15309,12 @@
         <v>-61433431.92332575</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>16.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14996,12 +15348,12 @@
         <v>-61433431.92332575</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>16.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15035,12 +15387,12 @@
         <v>-61433431.92332575</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
-      </c>
-      <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>16.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I440" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15074,12 +15426,12 @@
         <v>-61433431.92332575</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
-      </c>
-      <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>16.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15113,12 +15465,12 @@
         <v>-61433431.92332575</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
-      </c>
-      <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>16.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I442" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15152,12 +15504,12 @@
         <v>-61227519.60823282</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>16.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15191,12 +15543,12 @@
         <v>-61227297.58047181</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>16.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I444" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15230,12 +15582,12 @@
         <v>-61235883.4904718</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>16.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>16.57</v>
+      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15272,9 +15624,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15308,12 +15658,12 @@
         <v>-61295376.27993693</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>16.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15347,12 +15697,12 @@
         <v>-61295376.27993693</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
         <v>16.5</v>
       </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15386,12 +15736,12 @@
         <v>-61293950.66253693</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
         <v>16.5</v>
       </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15425,12 +15775,12 @@
         <v>-61293950.66253693</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>16.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15464,12 +15814,12 @@
         <v>-61293950.66253693</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>16.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15503,12 +15853,12 @@
         <v>-61339603.89013693</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>16.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15542,14 +15892,12 @@
         <v>-61473924.28843693</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I453" t="n">
         <v>16.5</v>
       </c>
-      <c r="J453" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15583,14 +15931,12 @@
         <v>-61476575.67643693</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I454" t="n">
         <v>16.49</v>
       </c>
-      <c r="J454" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15624,14 +15970,12 @@
         <v>-61458369.43453693</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I455" t="n">
         <v>16.48</v>
       </c>
-      <c r="J455" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15665,14 +16009,12 @@
         <v>-61671171.65943693</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I456" t="n">
         <v>16.49</v>
       </c>
-      <c r="J456" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15706,12 +16048,12 @@
         <v>-61671171.65943693</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>16.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15745,12 +16087,12 @@
         <v>-61096159.31553693</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>16.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15784,12 +16126,12 @@
         <v>-61416392.97703741</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
         <v>16.5</v>
       </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15823,12 +16165,12 @@
         <v>-61416392.97703741</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>16.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15862,12 +16204,12 @@
         <v>-61416362.65553741</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>16.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15901,12 +16243,12 @@
         <v>-61416262.65553741</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>16.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15940,12 +16282,12 @@
         <v>-61423209.66113741</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
         <v>16.5</v>
       </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15979,12 +16321,12 @@
         <v>-61416545.17123741</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>16.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16018,12 +16360,12 @@
         <v>-61416861.22683741</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
         <v>16.5</v>
       </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16057,12 +16399,12 @@
         <v>-61416861.22683741</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>16.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16096,12 +16438,12 @@
         <v>-61414480.25523741</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>16.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16135,12 +16477,12 @@
         <v>-61381965.02540254</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>16.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16174,12 +16516,12 @@
         <v>-61381965.02540254</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>16.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16213,12 +16555,12 @@
         <v>-61177365.02540254</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>16.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16252,12 +16594,12 @@
         <v>-61180551.86060254</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>16.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16291,12 +16633,12 @@
         <v>-61177525.26140253</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>16.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16330,12 +16672,12 @@
         <v>-61177254.17706519</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>16.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>16.57</v>
+      </c>
+      <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16369,12 +16711,12 @@
         <v>-61177254.17706519</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>16.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16408,12 +16750,12 @@
         <v>-61180195.20776519</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>16.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16447,12 +16789,12 @@
         <v>-61162338.84316519</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>16.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16486,12 +16828,12 @@
         <v>-61121611.10926519</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>16.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16528,9 +16870,7 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16567,9 +16907,7 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16606,9 +16944,7 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16645,9 +16981,7 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16684,9 +17018,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16723,9 +17055,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16762,9 +17092,7 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16801,9 +17129,7 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16840,9 +17166,7 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16879,9 +17203,7 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16918,9 +17240,7 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16957,9 +17277,7 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16996,9 +17314,7 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17035,9 +17351,7 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17074,9 +17388,7 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17113,9 +17425,7 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17152,9 +17462,7 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17191,9 +17499,7 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17230,9 +17536,7 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17269,9 +17573,7 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17308,9 +17610,7 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17347,9 +17647,7 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17386,9 +17684,7 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17425,9 +17721,7 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17464,9 +17758,7 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17503,9 +17795,7 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17542,9 +17832,7 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17581,9 +17869,7 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17620,9 +17906,7 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17659,9 +17943,7 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17698,9 +17980,7 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17737,9 +18017,7 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17776,9 +18054,7 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17815,9 +18091,7 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17854,9 +18128,7 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J512" t="inlineStr"/>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17893,9 +18165,7 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17932,9 +18202,7 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17971,9 +18239,7 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18010,9 +18276,7 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18049,9 +18313,7 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18088,9 +18350,7 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18127,9 +18387,7 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18166,9 +18424,7 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J520" t="inlineStr"/>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18205,9 +18461,7 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J521" t="inlineStr"/>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18244,9 +18498,7 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J522" t="inlineStr"/>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18283,9 +18535,7 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18322,9 +18572,7 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18361,9 +18609,7 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18400,9 +18646,7 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18439,9 +18683,7 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18478,9 +18720,7 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18517,9 +18757,7 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18556,9 +18794,7 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18595,9 +18831,7 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18634,9 +18868,7 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18673,9 +18905,7 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18712,9 +18942,7 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18751,9 +18979,7 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J535" t="inlineStr"/>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18790,9 +19016,7 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18829,9 +19053,7 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18868,9 +19090,7 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18907,9 +19127,7 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18946,9 +19164,7 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18985,9 +19201,7 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19024,9 +19238,7 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19063,9 +19275,7 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19102,9 +19312,7 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J544" t="inlineStr"/>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19141,9 +19349,7 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19180,9 +19386,7 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19219,9 +19423,7 @@
         <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19258,9 +19460,7 @@
         <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19297,9 +19497,7 @@
         <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19336,9 +19534,7 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19375,9 +19571,7 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19414,9 +19608,7 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19453,9 +19645,7 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19492,9 +19682,7 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19531,9 +19719,7 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19570,9 +19756,7 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19609,9 +19793,7 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19648,9 +19830,7 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19687,9 +19867,7 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19726,9 +19904,7 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19765,9 +19941,7 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19804,9 +19978,7 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19843,9 +20015,7 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19882,9 +20052,7 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19921,9 +20089,7 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19960,9 +20126,7 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19999,9 +20163,7 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20038,9 +20200,7 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20077,9 +20237,7 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20116,9 +20274,7 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20155,9 +20311,7 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20194,9 +20348,7 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20233,9 +20385,7 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20272,9 +20422,7 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20311,9 +20459,7 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20350,9 +20496,7 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20389,9 +20533,7 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20428,9 +20570,7 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20467,9 +20607,7 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20506,9 +20644,7 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20545,9 +20681,7 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20584,9 +20718,7 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20623,9 +20755,7 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20662,9 +20792,7 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20701,9 +20829,7 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20737,12 +20863,12 @@
         <v>-62152144.15058547</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>16.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20779,9 +20905,7 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20818,9 +20942,7 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20857,9 +20979,7 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20896,9 +21016,7 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20935,9 +21053,7 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20974,9 +21090,7 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21013,9 +21127,7 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21052,9 +21164,7 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21091,9 +21201,7 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21130,9 +21238,7 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21169,9 +21275,7 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21208,9 +21312,7 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21247,9 +21349,7 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21286,9 +21386,7 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21325,9 +21423,7 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21364,9 +21460,7 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21403,9 +21497,7 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21442,9 +21534,7 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21481,9 +21571,7 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21520,9 +21608,7 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21559,9 +21645,7 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21598,9 +21682,7 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21637,9 +21719,7 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21676,9 +21756,7 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21715,9 +21793,7 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21754,9 +21830,7 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21793,9 +21867,7 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21832,9 +21904,7 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21871,9 +21941,7 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21910,9 +21978,7 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21949,9 +22015,7 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21988,9 +22052,7 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22027,9 +22089,7 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22066,9 +22126,7 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22105,9 +22163,7 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22144,9 +22200,7 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22183,9 +22237,7 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22222,9 +22274,7 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>16.5</v>
-      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22236,6 +22286,6 @@
       <c r="M624" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest TRX.xlsx
+++ b/BackTest/2020-01-14 BackTest TRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>876492.1779222803</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>876492.1779222803</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>887646.8005222803</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>777134.6750222803</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>777134.6750222803</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>776743.4427222803</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>776743.4427222803</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>776743.4427222803</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>743551.9209222803</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>445590.0634222803</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-481177.2214777197</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-519631.7401777197</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>326728.2373222803</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>455575.1575222803</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>455575.1575222803</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>568062.2210222803</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>568062.2210222803</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>948500.4688222805</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>948500.4688222805</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>951990.4688222805</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>956403.4188222805</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>2519110.19502228</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>2516526.56502228</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>2516599.822322281</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>2486623.059322281</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>2486623.059322281</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>2486445.204322281</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>2475734.164322281</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>2480085.111122281</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>2480085.111122281</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>2419482.341322281</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>2419482.341322281</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>2419482.341322281</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>2419482.341322281</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>2419482.341322281</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>2419482.341322281</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>2619482.341322281</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>2364495.315985991</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>2364495.315985991</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>2411929.915985991</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>2384411.288185991</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>2404953.358885991</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>2404953.358885991</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>2231225.366285991</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>2231225.366285991</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>2098424.099185992</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>2098621.551792622</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>2098621.551792622</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>2096867.871992622</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>2126968.050692622</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>2615982.193992622</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>1780492.349114432</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>1687003.799114431</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>1787003.799114431</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>1602549.469214431</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>1592732.716814431</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>1609317.859614431</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>1509317.859614431</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>1507317.859614431</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>1507317.859614431</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>1640883.093914432</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>1617894.070714432</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>1617894.070714432</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>1717894.070714432</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>1276228.878514432</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>1276228.878514432</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>1276228.878514432</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>1200736.286914432</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>1243527.963414432</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>1243527.963414432</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>1277081.149414432</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>1277081.149414432</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>1310945.626414432</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>1310945.626414432</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>1265330.778514432</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>1162654.302914432</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>1166194.652914432</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>1205680.007114432</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>1205680.007114432</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>1205680.007114432</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>1163176.448014432</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>1164356.468014432</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>1157841.580614432</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>1157841.580614432</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>1315642.214314432</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>1234537.655614432</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>364537.6556144319</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>364537.6556144319</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>367870.6556144319</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>367870.6556144319</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>307870.6556144319</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>307870.6556144319</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-587123.339284858</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -12067,212 +12067,182 @@
         <v>-60684405.5994943</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
-      </c>
-      <c r="I354" t="n">
-        <v>16.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
+      <c r="K354" t="inlineStr"/>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C355" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D355" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E355" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F355" t="n">
+        <v>94096.46829999999</v>
+      </c>
+      <c r="G355" t="n">
+        <v>-60684405.5994943</v>
+      </c>
+      <c r="H355" t="n">
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="C356" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="D356" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="E356" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="F356" t="n">
+        <v>60.4962</v>
+      </c>
+      <c r="G356" t="n">
+        <v>-60684345.1032943</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C357" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D357" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E357" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F357" t="n">
+        <v>5187.82</v>
+      </c>
+      <c r="G357" t="n">
+        <v>-60689532.9232943</v>
+      </c>
+      <c r="H357" t="n">
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C358" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D358" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E358" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F358" t="n">
+        <v>59256.9851</v>
+      </c>
+      <c r="G358" t="n">
+        <v>-60689532.9232943</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="C359" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D359" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="E359" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F359" t="n">
+        <v>4817.5708</v>
+      </c>
+      <c r="G359" t="n">
+        <v>-60689532.9232943</v>
+      </c>
+      <c r="H359" t="n">
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L354" t="n">
-        <v>1</v>
-      </c>
-      <c r="M354" t="inlineStr"/>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C355" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D355" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E355" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F355" t="n">
-        <v>94096.46829999999</v>
-      </c>
-      <c r="G355" t="n">
-        <v>-60684405.5994943</v>
-      </c>
-      <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L355" t="n">
-        <v>1</v>
-      </c>
-      <c r="M355" t="inlineStr"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="C356" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="D356" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="E356" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="F356" t="n">
-        <v>60.4962</v>
-      </c>
-      <c r="G356" t="n">
-        <v>-60684345.1032943</v>
-      </c>
-      <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L356" t="n">
-        <v>1</v>
-      </c>
-      <c r="M356" t="inlineStr"/>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C357" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D357" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E357" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F357" t="n">
-        <v>5187.82</v>
-      </c>
-      <c r="G357" t="n">
-        <v>-60689532.9232943</v>
-      </c>
-      <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L357" t="n">
-        <v>1</v>
-      </c>
-      <c r="M357" t="inlineStr"/>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C358" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D358" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E358" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F358" t="n">
-        <v>59256.9851</v>
-      </c>
-      <c r="G358" t="n">
-        <v>-60689532.9232943</v>
-      </c>
-      <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L358" t="n">
-        <v>1</v>
-      </c>
-      <c r="M358" t="inlineStr"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="C359" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D359" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="E359" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F359" t="n">
-        <v>4817.5708</v>
-      </c>
-      <c r="G359" t="n">
-        <v>-60689532.9232943</v>
-      </c>
-      <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12301,11 +12271,9 @@
         <v>-60495724.30415637</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>16.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr">
         <is>
@@ -12340,11 +12308,9 @@
         <v>-60495724.30415637</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>16.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
@@ -12379,11 +12345,9 @@
         <v>-60465533.46685637</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>16.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
@@ -12418,11 +12382,9 @@
         <v>-60470847.70685637</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>16.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
@@ -12457,11 +12419,9 @@
         <v>-60470847.70685637</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>16.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
@@ -12496,11 +12456,9 @@
         <v>-60470847.70685637</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>16.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
@@ -12535,11 +12493,9 @@
         <v>-60470847.70685637</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>16.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
@@ -12574,11 +12530,9 @@
         <v>-60478886.82685637</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>16.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr">
         <is>
@@ -12613,11 +12567,9 @@
         <v>-59973403.62055637</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
-      </c>
-      <c r="I368" t="n">
-        <v>16.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr">
         <is>
@@ -12652,11 +12604,9 @@
         <v>-59961938.92055637</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
-      </c>
-      <c r="I369" t="n">
-        <v>16.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr">
         <is>
@@ -12691,11 +12641,9 @@
         <v>-59873464.12715637</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
-      </c>
-      <c r="I370" t="n">
-        <v>16.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="inlineStr">
         <is>
@@ -12804,11 +12752,9 @@
         <v>-60145747.32815637</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>16.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
@@ -13398,11 +13344,9 @@
         <v>-60778986.6780039</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
-      </c>
-      <c r="I389" t="n">
-        <v>16.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
@@ -13437,11 +13381,9 @@
         <v>-60778986.6780039</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
-      </c>
-      <c r="I390" t="n">
-        <v>16.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
@@ -13476,11 +13418,9 @@
         <v>-60778986.6780039</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
-      </c>
-      <c r="I391" t="n">
-        <v>16.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
@@ -13515,11 +13455,9 @@
         <v>-60778986.6780039</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
-      </c>
-      <c r="I392" t="n">
-        <v>16.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
@@ -13554,11 +13492,9 @@
         <v>-60778986.6780039</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
-      </c>
-      <c r="I393" t="n">
-        <v>16.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
@@ -13593,11 +13529,9 @@
         <v>-60778986.6780039</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
-      </c>
-      <c r="I394" t="n">
-        <v>16.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
@@ -13632,11 +13566,9 @@
         <v>-60776507.6872039</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
-      </c>
-      <c r="I395" t="n">
-        <v>16.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
@@ -13671,11 +13603,9 @@
         <v>-60884831.9558039</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
-      </c>
-      <c r="I396" t="n">
-        <v>16.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
@@ -13710,11 +13640,9 @@
         <v>-60884831.9558039</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
-        <v>16.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
@@ -13749,11 +13677,9 @@
         <v>-60884831.9558039</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>16.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
@@ -13788,11 +13714,9 @@
         <v>-60884831.9558039</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>16.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
@@ -13827,11 +13751,9 @@
         <v>-60884831.9558039</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>16.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
@@ -13866,11 +13788,9 @@
         <v>-60822046.6646039</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>16.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
@@ -13905,11 +13825,9 @@
         <v>-60822046.6646039</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>16.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
@@ -13944,11 +13862,9 @@
         <v>-60822046.6646039</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>16.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
@@ -13983,11 +13899,9 @@
         <v>-60822046.6646039</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>16.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
@@ -14022,11 +13936,9 @@
         <v>-60822046.6646039</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>16.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
@@ -14061,11 +13973,9 @@
         <v>-60822046.6646039</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>16.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
@@ -14100,11 +14010,9 @@
         <v>-60822046.6646039</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
-      </c>
-      <c r="I407" t="n">
-        <v>16.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
@@ -14139,11 +14047,9 @@
         <v>-60822046.6646039</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>16.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
@@ -14178,11 +14084,9 @@
         <v>-60742339.63390391</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
-      </c>
-      <c r="I409" t="n">
-        <v>16.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
@@ -14217,11 +14121,9 @@
         <v>-60974758.68540391</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
-      </c>
-      <c r="I410" t="n">
-        <v>16.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
@@ -14256,11 +14158,9 @@
         <v>-60974758.68540391</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>16.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
@@ -14295,11 +14195,9 @@
         <v>-60974758.68540391</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>16.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
@@ -14334,11 +14232,9 @@
         <v>-61073299.51390391</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>16.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
@@ -14373,11 +14269,9 @@
         <v>-61178367.70780391</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>16.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
@@ -14412,11 +14306,9 @@
         <v>-61173271.3614039</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>16.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
@@ -14451,11 +14343,9 @@
         <v>-61198763.2601039</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>16.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
@@ -14490,11 +14380,9 @@
         <v>-61309534.0905039</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>16.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
@@ -14997,11 +14885,9 @@
         <v>-60864246.21202507</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>16.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
@@ -15036,11 +14922,9 @@
         <v>-61488303.02172507</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
-        <v>16.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
@@ -15075,11 +14959,9 @@
         <v>-61482028.71223281</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>16.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
@@ -15114,11 +14996,9 @@
         <v>-61580060.02123281</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>16.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
@@ -15153,11 +15033,9 @@
         <v>-61458126.73043282</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>16.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
@@ -15192,11 +15070,9 @@
         <v>-61458126.73043282</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>16.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
@@ -15231,11 +15107,9 @@
         <v>-61402166.83932575</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>16.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
@@ -15270,11 +15144,9 @@
         <v>-61433431.92332575</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>16.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
@@ -15309,11 +15181,9 @@
         <v>-61433431.92332575</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>16.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
@@ -15348,11 +15218,9 @@
         <v>-61433431.92332575</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>16.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
@@ -15387,11 +15255,9 @@
         <v>-61433431.92332575</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>16.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
@@ -15426,11 +15292,9 @@
         <v>-61433431.92332575</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>16.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
@@ -15465,11 +15329,9 @@
         <v>-61433431.92332575</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
-      </c>
-      <c r="I442" t="n">
-        <v>16.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
@@ -15504,11 +15366,9 @@
         <v>-61227519.60823282</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
-      </c>
-      <c r="I443" t="n">
-        <v>16.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
@@ -15543,11 +15403,9 @@
         <v>-61227297.58047181</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
-      </c>
-      <c r="I444" t="n">
-        <v>16.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
@@ -15582,11 +15440,9 @@
         <v>-61235883.4904718</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
-      </c>
-      <c r="I445" t="n">
-        <v>16.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
@@ -15658,11 +15514,9 @@
         <v>-61295376.27993693</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
-      </c>
-      <c r="I447" t="n">
-        <v>16.53</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
@@ -15697,11 +15551,9 @@
         <v>-61295376.27993693</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
-      </c>
-      <c r="I448" t="n">
-        <v>16.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
@@ -15736,11 +15588,9 @@
         <v>-61293950.66253693</v>
       </c>
       <c r="H449" t="n">
-        <v>1</v>
-      </c>
-      <c r="I449" t="n">
-        <v>16.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
@@ -15775,11 +15625,9 @@
         <v>-61293950.66253693</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
-      </c>
-      <c r="I450" t="n">
-        <v>16.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
@@ -15814,11 +15662,9 @@
         <v>-61293950.66253693</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
-      </c>
-      <c r="I451" t="n">
-        <v>16.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
@@ -15853,11 +15699,9 @@
         <v>-61339603.89013693</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
-      </c>
-      <c r="I452" t="n">
-        <v>16.51</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
@@ -15892,11 +15736,9 @@
         <v>-61473924.28843693</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
-      </c>
-      <c r="I453" t="n">
-        <v>16.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
@@ -15931,11 +15773,9 @@
         <v>-61476575.67643693</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
-      </c>
-      <c r="I454" t="n">
-        <v>16.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
@@ -15970,11 +15810,9 @@
         <v>-61458369.43453693</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
-      </c>
-      <c r="I455" t="n">
-        <v>16.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
@@ -16009,11 +15847,9 @@
         <v>-61671171.65943693</v>
       </c>
       <c r="H456" t="n">
-        <v>1</v>
-      </c>
-      <c r="I456" t="n">
-        <v>16.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
@@ -16048,11 +15884,9 @@
         <v>-61671171.65943693</v>
       </c>
       <c r="H457" t="n">
-        <v>1</v>
-      </c>
-      <c r="I457" t="n">
-        <v>16.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
@@ -16087,11 +15921,9 @@
         <v>-61096159.31553693</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
-      </c>
-      <c r="I458" t="n">
-        <v>16.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
@@ -16126,11 +15958,9 @@
         <v>-61416392.97703741</v>
       </c>
       <c r="H459" t="n">
-        <v>1</v>
-      </c>
-      <c r="I459" t="n">
-        <v>16.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
@@ -16165,11 +15995,9 @@
         <v>-61416392.97703741</v>
       </c>
       <c r="H460" t="n">
-        <v>1</v>
-      </c>
-      <c r="I460" t="n">
-        <v>16.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
@@ -16204,11 +16032,9 @@
         <v>-61416362.65553741</v>
       </c>
       <c r="H461" t="n">
-        <v>1</v>
-      </c>
-      <c r="I461" t="n">
-        <v>16.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
@@ -16243,11 +16069,9 @@
         <v>-61416262.65553741</v>
       </c>
       <c r="H462" t="n">
-        <v>1</v>
-      </c>
-      <c r="I462" t="n">
-        <v>16.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
@@ -16282,11 +16106,9 @@
         <v>-61423209.66113741</v>
       </c>
       <c r="H463" t="n">
-        <v>1</v>
-      </c>
-      <c r="I463" t="n">
-        <v>16.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
@@ -16321,11 +16143,9 @@
         <v>-61416545.17123741</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
-      </c>
-      <c r="I464" t="n">
-        <v>16.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
@@ -16360,11 +16180,9 @@
         <v>-61416861.22683741</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
-      </c>
-      <c r="I465" t="n">
-        <v>16.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
@@ -16399,11 +16217,9 @@
         <v>-61416861.22683741</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
-      </c>
-      <c r="I466" t="n">
-        <v>16.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
@@ -16438,11 +16254,9 @@
         <v>-61414480.25523741</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
-      </c>
-      <c r="I467" t="n">
-        <v>16.49</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
@@ -16477,11 +16291,9 @@
         <v>-61381965.02540254</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
-      </c>
-      <c r="I468" t="n">
-        <v>16.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
@@ -16516,11 +16328,9 @@
         <v>-61381965.02540254</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
-      </c>
-      <c r="I469" t="n">
-        <v>16.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
@@ -16555,11 +16365,9 @@
         <v>-61177365.02540254</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
-      </c>
-      <c r="I470" t="n">
-        <v>16.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
@@ -16594,11 +16402,9 @@
         <v>-61180551.86060254</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
-      </c>
-      <c r="I471" t="n">
-        <v>16.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
@@ -16633,11 +16439,9 @@
         <v>-61177525.26140253</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
-      </c>
-      <c r="I472" t="n">
-        <v>16.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
@@ -16672,11 +16476,9 @@
         <v>-61177254.17706519</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
-      </c>
-      <c r="I473" t="n">
-        <v>16.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
@@ -16711,11 +16513,9 @@
         <v>-61177254.17706519</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
-      </c>
-      <c r="I474" t="n">
-        <v>16.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
@@ -16750,11 +16550,9 @@
         <v>-61180195.20776519</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
-      </c>
-      <c r="I475" t="n">
-        <v>16.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
@@ -16789,11 +16587,9 @@
         <v>-61162338.84316519</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
-      </c>
-      <c r="I476" t="n">
-        <v>16.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
@@ -16828,11 +16624,9 @@
         <v>-61121611.10926519</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
-      </c>
-      <c r="I477" t="n">
-        <v>16.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
@@ -17718,18 +17512,16 @@
         <v>-60919523.99861182</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L501" t="n">
-        <v>1</v>
-      </c>
+      <c r="L501" t="inlineStr"/>
       <c r="M501" t="inlineStr"/>
     </row>
     <row r="502">
@@ -17755,15 +17547,11 @@
         <v>-60773560.03448846</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17792,15 +17580,11 @@
         <v>-60773560.03448846</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17829,15 +17613,11 @@
         <v>-60749279.05078846</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17866,15 +17646,11 @@
         <v>-60749279.05078846</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17903,15 +17679,11 @@
         <v>-60750428.83018846</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17940,15 +17712,11 @@
         <v>-60736528.83018846</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17977,15 +17745,11 @@
         <v>-60749290.75088846</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18014,15 +17778,11 @@
         <v>-60749225.94278846</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18051,15 +17811,11 @@
         <v>-60771225.94278846</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18088,15 +17844,11 @@
         <v>-60771225.94278846</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18125,15 +17877,11 @@
         <v>-60771225.94278846</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18162,15 +17910,11 @@
         <v>-60771225.94278846</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18199,15 +17943,11 @@
         <v>-60771225.94278846</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18236,15 +17976,11 @@
         <v>-60774505.25278846</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18273,15 +18009,11 @@
         <v>-60816277.93468846</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18310,15 +18042,11 @@
         <v>-60940238.60178846</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18347,15 +18075,11 @@
         <v>-60940038.60178846</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18384,15 +18108,11 @@
         <v>-60939192.72018846</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18421,15 +18141,11 @@
         <v>-60954189.41468846</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18462,11 +18178,7 @@
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18499,11 +18211,7 @@
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18536,11 +18244,7 @@
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18573,11 +18277,7 @@
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18610,11 +18310,7 @@
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18647,11 +18343,7 @@
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18680,15 +18372,11 @@
         <v>-60954337.39798846</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18721,11 +18409,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18758,11 +18442,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18795,11 +18475,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18832,11 +18508,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18869,11 +18541,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18906,11 +18574,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18943,11 +18607,7 @@
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18976,15 +18636,11 @@
         <v>-62113526.98408547</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19017,11 +18673,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19054,11 +18706,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19091,11 +18739,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19128,11 +18772,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19165,11 +18805,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19198,15 +18834,11 @@
         <v>-62358776.57118547</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19239,11 +18871,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19272,15 +18900,11 @@
         <v>-62350395.87478547</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19309,15 +18933,11 @@
         <v>-62350395.87478547</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19346,15 +18966,11 @@
         <v>-62283506.04498547</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19383,15 +18999,11 @@
         <v>-62283506.04498547</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19420,15 +19032,11 @@
         <v>-62283506.04498547</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19457,15 +19065,11 @@
         <v>-62283506.04498547</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19494,15 +19098,11 @@
         <v>-62283506.04498547</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19531,15 +19131,11 @@
         <v>-62283506.04498547</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19568,15 +19164,11 @@
         <v>-62283506.04498547</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19605,15 +19197,11 @@
         <v>-62271033.38878547</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19642,15 +19230,11 @@
         <v>-62531033.38878547</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19683,11 +19267,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19716,15 +19296,11 @@
         <v>-62475706.93278547</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19757,11 +19333,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19794,11 +19366,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19827,15 +19395,11 @@
         <v>-62467005.63278547</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19864,15 +19428,11 @@
         <v>-62467065.51308547</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19901,15 +19461,11 @@
         <v>-62392162.81188547</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19938,15 +19494,11 @@
         <v>-62019597.06018547</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19975,15 +19527,11 @@
         <v>-62003704.48548547</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -20012,15 +19560,11 @@
         <v>-62003704.48548547</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20053,11 +19597,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20090,11 +19630,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20127,11 +19663,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20164,11 +19696,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20201,11 +19729,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20238,11 +19762,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20275,11 +19795,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20312,11 +19828,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20349,11 +19861,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20386,11 +19894,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20423,11 +19927,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20460,11 +19960,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20497,11 +19993,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20534,11 +20026,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20571,11 +20059,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20604,15 +20088,11 @@
         <v>-62152046.92058548</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20641,15 +20121,11 @@
         <v>-62135949.56838547</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20678,15 +20154,11 @@
         <v>-62150881.45958547</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20715,15 +20187,11 @@
         <v>-62150881.45958547</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20756,11 +20224,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20789,15 +20253,11 @@
         <v>-62162393.88868547</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20826,15 +20286,11 @@
         <v>-62166261.98908547</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20863,17 +20319,11 @@
         <v>-62152144.15058547</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
-      </c>
-      <c r="I586" t="n">
-        <v>16.6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20902,15 +20352,11 @@
         <v>-62152144.15058547</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20939,15 +20385,11 @@
         <v>-62303774.31208547</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20976,15 +20418,11 @@
         <v>-62303774.31208547</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -21013,15 +20451,11 @@
         <v>-62303774.31208547</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -21054,11 +20488,7 @@
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -21087,15 +20517,11 @@
         <v>-62268802.01668547</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21124,15 +20550,11 @@
         <v>-62291870.30348547</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21161,15 +20583,11 @@
         <v>-62291870.30348547</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21202,11 +20620,7 @@
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21235,15 +20649,11 @@
         <v>-62214102.56498547</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21276,11 +20686,7 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21313,11 +20719,7 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21350,11 +20752,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21387,11 +20785,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21424,11 +20818,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21461,11 +20851,7 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21498,11 +20884,7 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21535,11 +20917,7 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21572,11 +20950,7 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21609,11 +20983,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21646,11 +21016,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21683,11 +21049,7 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21720,11 +21082,7 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21757,11 +21115,7 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21794,11 +21148,7 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21831,11 +21181,7 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21868,11 +21214,7 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21901,13 +21243,15 @@
         <v>-63616972.27728547</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>16.59</v>
+      </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L614" t="n">
@@ -21938,9 +21282,11 @@
         <v>-63616850.28933367</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>16.58</v>
+      </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
@@ -21975,9 +21321,11 @@
         <v>-64969572.68583367</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>16.6</v>
+      </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
@@ -22012,9 +21360,11 @@
         <v>-64969350.69788187</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>16.58</v>
+      </c>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
@@ -22086,9 +21436,11 @@
         <v>-66301860.43257633</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>16.55</v>
+      </c>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
@@ -22123,9 +21475,11 @@
         <v>-66969841.93367633</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>16.59</v>
+      </c>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
@@ -22160,9 +21514,11 @@
         <v>-66968234.06367633</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>16.55</v>
+      </c>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
@@ -22197,9 +21553,11 @@
         <v>-67032485.26147634</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>16.59</v>
+      </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
@@ -22271,9 +21629,11 @@
         <v>-66890390.04147634</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
-      </c>
-      <c r="I624" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I624" t="n">
+        <v>16.54</v>
+      </c>
       <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
@@ -22286,6 +21646,6 @@
       <c r="M624" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest TRX.xlsx
+++ b/BackTest/2020-01-14 BackTest TRX.xlsx
@@ -451,7 +451,7 @@
         <v>876492.1779222803</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>876492.1779222803</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>887646.8005222803</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>777134.6750222803</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>776743.4427222803</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>776743.4427222803</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>743551.9209222803</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>706341.2005222803</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>1927154.83382228</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>1822726.47602228</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>1832312.53602228</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>1832312.53602228</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>1815819.45012228</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>1823114.39012228</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>1970893.63802228</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>1970893.63802228</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>1970893.63802228</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>1970893.63802228</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>1970893.63802228</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>1970893.63802228</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>1970893.63802228</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>2192317.202022281</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>2192317.202022281</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>2064810.96662228</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>2064810.96662228</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>2537052.32412228</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>2537052.32412228</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>2519787.22412228</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>2519110.19502228</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>2516526.56502228</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>2516599.822322281</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>2486623.059322281</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>2231225.366285991</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>2098424.099185992</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>2098621.551792622</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>2098621.551792622</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>2096867.871992622</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>2126968.050692622</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>3605264.083714432</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>3229712.150314432</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>3229712.150314432</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>3177818.150314432</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>3162930.625014432</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>3475868.733114432</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>3409080.855914432</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>3649677.615614431</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>3632954.156414432</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>3626624.750714432</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>3626684.062714431</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>3626364.062714431</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>3608864.062714431</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>3203834.262714432</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>3203834.262714432</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>1276228.878514432</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>1276228.878514432</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>1276228.878514432</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>1200736.286914432</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>1243527.963414432</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>1243527.963414432</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>1277081.149414432</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>1277081.149414432</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>1310945.626414432</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>1310945.626414432</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>1265330.778514432</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>1162654.302914432</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>1166194.652914432</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>1205680.007114432</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>1205680.007114432</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>1205680.007114432</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>1163176.448014432</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>1164356.468014432</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>1157841.580614432</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>1157841.580614432</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>1315642.214314432</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>1234537.655614432</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>364537.6556144319</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>364537.6556144319</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>367870.6556144319</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>367870.6556144319</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>307870.6556144319</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>307870.6556144319</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -12232,2202 +12232,1986 @@
         <v>-60689532.9232943</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
         <v>16.5</v>
       </c>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr">
+      <c r="C360" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="D360" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="E360" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F360" t="n">
+        <v>193808.61913793</v>
+      </c>
+      <c r="G360" t="n">
+        <v>-60495724.30415637</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="C361" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="D361" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="E361" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="F361" t="n">
+        <v>44821.3344</v>
+      </c>
+      <c r="G361" t="n">
+        <v>-60495724.30415637</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="C362" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="D362" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="E362" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="F362" t="n">
+        <v>30190.8373</v>
+      </c>
+      <c r="G362" t="n">
+        <v>-60465533.46685637</v>
+      </c>
+      <c r="H362" t="n">
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="C363" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="D363" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="E363" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="F363" t="n">
+        <v>5314.24</v>
+      </c>
+      <c r="G363" t="n">
+        <v>-60470847.70685637</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="C364" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="D364" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="E364" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="F364" t="n">
+        <v>63813.0134</v>
+      </c>
+      <c r="G364" t="n">
+        <v>-60470847.70685637</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="C365" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="D365" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="E365" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="F365" t="n">
+        <v>90570.15700000001</v>
+      </c>
+      <c r="G365" t="n">
+        <v>-60470847.70685637</v>
+      </c>
+      <c r="H365" t="n">
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="C366" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="D366" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="E366" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="F366" t="n">
+        <v>41405.8889</v>
+      </c>
+      <c r="G366" t="n">
+        <v>-60470847.70685637</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C367" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D367" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E367" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F367" t="n">
+        <v>8039.12</v>
+      </c>
+      <c r="G367" t="n">
+        <v>-60478886.82685637</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="C368" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="D368" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="E368" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="F368" t="n">
+        <v>505483.2063</v>
+      </c>
+      <c r="G368" t="n">
+        <v>-59973403.62055637</v>
+      </c>
+      <c r="H368" t="n">
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="C369" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="D369" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="E369" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="F369" t="n">
+        <v>11464.7</v>
+      </c>
+      <c r="G369" t="n">
+        <v>-59961938.92055637</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="C370" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="D370" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="E370" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="F370" t="n">
+        <v>88474.7934</v>
+      </c>
+      <c r="G370" t="n">
+        <v>-59873464.12715637</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="C371" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="D371" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="E371" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="F371" t="n">
+        <v>11921.03</v>
+      </c>
+      <c r="G371" t="n">
+        <v>-59873464.12715637</v>
+      </c>
+      <c r="H371" t="n">
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="C372" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="D372" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="E372" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="F372" t="n">
+        <v>468582.6378</v>
+      </c>
+      <c r="G372" t="n">
+        <v>-60342046.76495637</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="C373" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="D373" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="E373" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="F373" t="n">
+        <v>196299.4368</v>
+      </c>
+      <c r="G373" t="n">
+        <v>-60145747.32815637</v>
+      </c>
+      <c r="H373" t="n">
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="C374" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="D374" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="E374" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="F374" t="n">
+        <v>37519.6925</v>
+      </c>
+      <c r="G374" t="n">
+        <v>-60145747.32815637</v>
+      </c>
+      <c r="H374" t="n">
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
+      <c r="M374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="C375" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="D375" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="E375" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="F375" t="n">
+        <v>171672.4706</v>
+      </c>
+      <c r="G375" t="n">
+        <v>-60317419.79875637</v>
+      </c>
+      <c r="H375" t="n">
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
+      <c r="M375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="C376" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="D376" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="E376" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="F376" t="n">
+        <v>662.3959</v>
+      </c>
+      <c r="G376" t="n">
+        <v>-60316757.40285636</v>
+      </c>
+      <c r="H376" t="n">
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
+      <c r="L376" t="n">
+        <v>1</v>
+      </c>
+      <c r="M376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="C377" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="D377" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="E377" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="F377" t="n">
+        <v>108337.191</v>
+      </c>
+      <c r="G377" t="n">
+        <v>-60425094.59385636</v>
+      </c>
+      <c r="H377" t="n">
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
+      <c r="L377" t="n">
+        <v>1</v>
+      </c>
+      <c r="M377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="C378" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="D378" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="E378" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="F378" t="n">
+        <v>192676.103</v>
+      </c>
+      <c r="G378" t="n">
+        <v>-60425094.59385636</v>
+      </c>
+      <c r="H378" t="n">
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr"/>
+      <c r="L378" t="n">
+        <v>1</v>
+      </c>
+      <c r="M378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="C379" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="D379" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="E379" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="F379" t="n">
+        <v>183278.3257</v>
+      </c>
+      <c r="G379" t="n">
+        <v>-60241816.26815636</v>
+      </c>
+      <c r="H379" t="n">
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="inlineStr"/>
+      <c r="K379" t="inlineStr"/>
+      <c r="L379" t="n">
+        <v>1</v>
+      </c>
+      <c r="M379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="C380" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="D380" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="E380" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="F380" t="n">
+        <v>88228.8238</v>
+      </c>
+      <c r="G380" t="n">
+        <v>-60330045.09195636</v>
+      </c>
+      <c r="H380" t="n">
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr"/>
+      <c r="L380" t="n">
+        <v>1</v>
+      </c>
+      <c r="M380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="C381" t="n">
+        <v>16.57</v>
+      </c>
+      <c r="D381" t="n">
+        <v>16.57</v>
+      </c>
+      <c r="E381" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="F381" t="n">
+        <v>55368.72261816</v>
+      </c>
+      <c r="G381" t="n">
+        <v>-60274676.3693382</v>
+      </c>
+      <c r="H381" t="n">
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr"/>
+      <c r="L381" t="n">
+        <v>1</v>
+      </c>
+      <c r="M381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>16.57</v>
+      </c>
+      <c r="C382" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="D382" t="n">
+        <v>16.57</v>
+      </c>
+      <c r="E382" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="F382" t="n">
+        <v>2446.1678</v>
+      </c>
+      <c r="G382" t="n">
+        <v>-60277122.5371382</v>
+      </c>
+      <c r="H382" t="n">
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
+      <c r="L382" t="n">
+        <v>1</v>
+      </c>
+      <c r="M382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="C383" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="D383" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="E383" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="F383" t="n">
+        <v>7524.4848</v>
+      </c>
+      <c r="G383" t="n">
+        <v>-60269598.0523382</v>
+      </c>
+      <c r="H383" t="n">
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
+      <c r="L383" t="n">
+        <v>1</v>
+      </c>
+      <c r="M383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="C384" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="D384" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="E384" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="F384" t="n">
+        <v>575.2764</v>
+      </c>
+      <c r="G384" t="n">
+        <v>-60269598.0523382</v>
+      </c>
+      <c r="H384" t="n">
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
+      <c r="L384" t="n">
+        <v>1</v>
+      </c>
+      <c r="M384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="C385" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="D385" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="E385" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="F385" t="n">
+        <v>603.86473429</v>
+      </c>
+      <c r="G385" t="n">
+        <v>-60268994.18760391</v>
+      </c>
+      <c r="H385" t="n">
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr"/>
+      <c r="L385" t="n">
+        <v>1</v>
+      </c>
+      <c r="M385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="C386" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="D386" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="E386" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="F386" t="n">
+        <v>26105.0018</v>
+      </c>
+      <c r="G386" t="n">
+        <v>-60268994.18760391</v>
+      </c>
+      <c r="H386" t="n">
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr"/>
+      <c r="L386" t="n">
+        <v>1</v>
+      </c>
+      <c r="M386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="C387" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="D387" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="E387" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="F387" t="n">
+        <v>89168.7503</v>
+      </c>
+      <c r="G387" t="n">
+        <v>-60358162.9379039</v>
+      </c>
+      <c r="H387" t="n">
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
+      <c r="L387" t="n">
+        <v>1</v>
+      </c>
+      <c r="M387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="C388" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="D388" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="E388" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="F388" t="n">
+        <v>280016.2315</v>
+      </c>
+      <c r="G388" t="n">
+        <v>-60638179.1694039</v>
+      </c>
+      <c r="H388" t="n">
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
+      <c r="L388" t="n">
+        <v>1</v>
+      </c>
+      <c r="M388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="C389" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D389" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="E389" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F389" t="n">
+        <v>140807.5086</v>
+      </c>
+      <c r="G389" t="n">
+        <v>-60778986.6780039</v>
+      </c>
+      <c r="H389" t="n">
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
+      <c r="L389" t="n">
+        <v>1</v>
+      </c>
+      <c r="M389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C390" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D390" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E390" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F390" t="n">
+        <v>11897.5721</v>
+      </c>
+      <c r="G390" t="n">
+        <v>-60778986.6780039</v>
+      </c>
+      <c r="H390" t="n">
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
+      <c r="L390" t="n">
+        <v>1</v>
+      </c>
+      <c r="M390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="C391" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D391" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="E391" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F391" t="n">
+        <v>228197</v>
+      </c>
+      <c r="G391" t="n">
+        <v>-60778986.6780039</v>
+      </c>
+      <c r="H391" t="n">
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
+      <c r="L391" t="n">
+        <v>1</v>
+      </c>
+      <c r="M391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C392" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D392" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E392" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F392" t="n">
+        <v>120130.5235</v>
+      </c>
+      <c r="G392" t="n">
+        <v>-60778986.6780039</v>
+      </c>
+      <c r="H392" t="n">
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
+      <c r="L392" t="n">
+        <v>1</v>
+      </c>
+      <c r="M392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C393" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D393" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E393" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F393" t="n">
+        <v>20039.9821</v>
+      </c>
+      <c r="G393" t="n">
+        <v>-60778986.6780039</v>
+      </c>
+      <c r="H393" t="n">
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
+      <c r="L393" t="n">
+        <v>1</v>
+      </c>
+      <c r="M393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="C394" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D394" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="E394" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F394" t="n">
+        <v>256349.5054</v>
+      </c>
+      <c r="G394" t="n">
+        <v>-60778986.6780039</v>
+      </c>
+      <c r="H394" t="n">
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
+      <c r="L394" t="n">
+        <v>1</v>
+      </c>
+      <c r="M394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="C395" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="D395" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="E395" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="F395" t="n">
+        <v>2478.9908</v>
+      </c>
+      <c r="G395" t="n">
+        <v>-60776507.6872039</v>
+      </c>
+      <c r="H395" t="n">
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
+      <c r="L395" t="n">
+        <v>1</v>
+      </c>
+      <c r="M395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C396" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D396" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E396" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F396" t="n">
+        <v>108324.2686</v>
+      </c>
+      <c r="G396" t="n">
+        <v>-60884831.9558039</v>
+      </c>
+      <c r="H396" t="n">
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
+      <c r="L396" t="n">
+        <v>1</v>
+      </c>
+      <c r="M396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C397" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D397" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E397" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F397" t="n">
+        <v>100880.5999</v>
+      </c>
+      <c r="G397" t="n">
+        <v>-60884831.9558039</v>
+      </c>
+      <c r="H397" t="n">
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
+      <c r="L397" t="n">
+        <v>1</v>
+      </c>
+      <c r="M397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C398" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D398" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E398" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F398" t="n">
+        <v>16225.3595</v>
+      </c>
+      <c r="G398" t="n">
+        <v>-60884831.9558039</v>
+      </c>
+      <c r="H398" t="n">
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
+      <c r="L398" t="n">
+        <v>1</v>
+      </c>
+      <c r="M398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C399" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D399" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="E399" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F399" t="n">
+        <v>151267.3413</v>
+      </c>
+      <c r="G399" t="n">
+        <v>-60884831.9558039</v>
+      </c>
+      <c r="H399" t="n">
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
+      <c r="L399" t="n">
+        <v>1</v>
+      </c>
+      <c r="M399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C400" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D400" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E400" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F400" t="n">
+        <v>4565.4965</v>
+      </c>
+      <c r="G400" t="n">
+        <v>-60884831.9558039</v>
+      </c>
+      <c r="H400" t="n">
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
+      <c r="L400" t="n">
+        <v>1</v>
+      </c>
+      <c r="M400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="C401" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="D401" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="E401" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="F401" t="n">
+        <v>62785.2912</v>
+      </c>
+      <c r="G401" t="n">
+        <v>-60822046.6646039</v>
+      </c>
+      <c r="H401" t="n">
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
+      <c r="L401" t="n">
+        <v>1</v>
+      </c>
+      <c r="M401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="C402" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="D402" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="E402" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="F402" t="n">
+        <v>132263.6767</v>
+      </c>
+      <c r="G402" t="n">
+        <v>-60822046.6646039</v>
+      </c>
+      <c r="H402" t="n">
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
+      <c r="L402" t="n">
+        <v>1</v>
+      </c>
+      <c r="M402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="C403" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="D403" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="E403" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="F403" t="n">
+        <v>31168.2718</v>
+      </c>
+      <c r="G403" t="n">
+        <v>-60822046.6646039</v>
+      </c>
+      <c r="H403" t="n">
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
+      <c r="L403" t="n">
+        <v>1</v>
+      </c>
+      <c r="M403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="C404" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="D404" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="E404" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="F404" t="n">
+        <v>4561.369</v>
+      </c>
+      <c r="G404" t="n">
+        <v>-60822046.6646039</v>
+      </c>
+      <c r="H404" t="n">
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
+      <c r="L404" t="n">
+        <v>1</v>
+      </c>
+      <c r="M404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="C405" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="D405" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="E405" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="F405" t="n">
+        <v>1047777.6712</v>
+      </c>
+      <c r="G405" t="n">
+        <v>-60822046.6646039</v>
+      </c>
+      <c r="H405" t="n">
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
+      <c r="L405" t="n">
+        <v>1</v>
+      </c>
+      <c r="M405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="C406" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="D406" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="E406" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="F406" t="n">
+        <v>38279.6434</v>
+      </c>
+      <c r="G406" t="n">
+        <v>-60822046.6646039</v>
+      </c>
+      <c r="H406" t="n">
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
+      <c r="L406" t="n">
+        <v>1</v>
+      </c>
+      <c r="M406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="C407" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="D407" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="E407" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="F407" t="n">
+        <v>43410.3558</v>
+      </c>
+      <c r="G407" t="n">
+        <v>-60822046.6646039</v>
+      </c>
+      <c r="H407" t="n">
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
+      <c r="L407" t="n">
+        <v>1</v>
+      </c>
+      <c r="M407" t="inlineStr"/>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="C408" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="D408" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="E408" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="F408" t="n">
+        <v>392396.6892</v>
+      </c>
+      <c r="G408" t="n">
+        <v>-60822046.6646039</v>
+      </c>
+      <c r="H408" t="n">
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
+      <c r="L408" t="n">
+        <v>1</v>
+      </c>
+      <c r="M408" t="inlineStr"/>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="C409" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="D409" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="E409" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="F409" t="n">
+        <v>79707.0307</v>
+      </c>
+      <c r="G409" t="n">
+        <v>-60742339.63390391</v>
+      </c>
+      <c r="H409" t="n">
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
+      <c r="L409" t="n">
+        <v>1</v>
+      </c>
+      <c r="M409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="C410" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="D410" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="E410" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="F410" t="n">
+        <v>232419.0515</v>
+      </c>
+      <c r="G410" t="n">
+        <v>-60974758.68540391</v>
+      </c>
+      <c r="H410" t="n">
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
+      <c r="L410" t="n">
+        <v>1</v>
+      </c>
+      <c r="M410" t="inlineStr"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="C411" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="D411" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="E411" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="F411" t="n">
+        <v>5645.095</v>
+      </c>
+      <c r="G411" t="n">
+        <v>-60974758.68540391</v>
+      </c>
+      <c r="H411" t="n">
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
+      <c r="L411" t="n">
+        <v>1</v>
+      </c>
+      <c r="M411" t="inlineStr"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="C412" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="D412" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="E412" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="F412" t="n">
+        <v>174166.2784</v>
+      </c>
+      <c r="G412" t="n">
+        <v>-60974758.68540391</v>
+      </c>
+      <c r="H412" t="n">
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
+      <c r="L412" t="n">
+        <v>1</v>
+      </c>
+      <c r="M412" t="inlineStr"/>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="C413" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D413" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="E413" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F413" t="n">
+        <v>98540.8285</v>
+      </c>
+      <c r="G413" t="n">
+        <v>-61073299.51390391</v>
+      </c>
+      <c r="H413" t="n">
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
+      <c r="L413" t="n">
+        <v>1</v>
+      </c>
+      <c r="M413" t="inlineStr"/>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="C414" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="D414" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E414" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="F414" t="n">
+        <v>105068.1939</v>
+      </c>
+      <c r="G414" t="n">
+        <v>-61178367.70780391</v>
+      </c>
+      <c r="H414" t="n">
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
+      <c r="L414" t="n">
+        <v>1</v>
+      </c>
+      <c r="M414" t="inlineStr"/>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="C415" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D415" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E415" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="F415" t="n">
+        <v>5096.3464</v>
+      </c>
+      <c r="G415" t="n">
+        <v>-61173271.3614039</v>
+      </c>
+      <c r="H415" t="n">
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="J415" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K415" t="inlineStr"/>
+      <c r="L415" t="n">
+        <v>1</v>
+      </c>
+      <c r="M415" t="inlineStr"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="C416" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="D416" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="E416" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="F416" t="n">
+        <v>25491.8987</v>
+      </c>
+      <c r="G416" t="n">
+        <v>-61198763.2601039</v>
+      </c>
+      <c r="H416" t="n">
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J416" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L416" t="n">
+        <v>1</v>
+      </c>
+      <c r="M416" t="inlineStr"/>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="C417" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="D417" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="E417" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="F417" t="n">
+        <v>110770.8304</v>
+      </c>
+      <c r="G417" t="n">
+        <v>-61309534.0905039</v>
+      </c>
+      <c r="H417" t="n">
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="J417" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L417" t="n">
+        <v>1</v>
+      </c>
+      <c r="M417" t="inlineStr"/>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" t="n">
+        <v>16.46</v>
+      </c>
+      <c r="C418" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="D418" t="n">
+        <v>16.46</v>
+      </c>
+      <c r="E418" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="F418" t="n">
+        <v>70063.9436</v>
+      </c>
+      <c r="G418" t="n">
+        <v>-61379598.0341039</v>
+      </c>
+      <c r="H418" t="n">
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="J418" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K418" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L359" t="n">
-        <v>1</v>
-      </c>
-      <c r="M359" t="inlineStr"/>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C360" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="D360" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="E360" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F360" t="n">
-        <v>193808.61913793</v>
-      </c>
-      <c r="G360" t="n">
-        <v>-60495724.30415637</v>
-      </c>
-      <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L360" t="n">
-        <v>1</v>
-      </c>
-      <c r="M360" t="inlineStr"/>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="C361" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="D361" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="E361" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="F361" t="n">
-        <v>44821.3344</v>
-      </c>
-      <c r="G361" t="n">
-        <v>-60495724.30415637</v>
-      </c>
-      <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L361" t="n">
-        <v>1</v>
-      </c>
-      <c r="M361" t="inlineStr"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="n">
-        <v>16.52</v>
-      </c>
-      <c r="C362" t="n">
-        <v>16.52</v>
-      </c>
-      <c r="D362" t="n">
-        <v>16.52</v>
-      </c>
-      <c r="E362" t="n">
-        <v>16.52</v>
-      </c>
-      <c r="F362" t="n">
-        <v>30190.8373</v>
-      </c>
-      <c r="G362" t="n">
-        <v>-60465533.46685637</v>
-      </c>
-      <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L362" t="n">
-        <v>1</v>
-      </c>
-      <c r="M362" t="inlineStr"/>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="C363" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="D363" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="E363" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="F363" t="n">
-        <v>5314.24</v>
-      </c>
-      <c r="G363" t="n">
-        <v>-60470847.70685637</v>
-      </c>
-      <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L363" t="n">
-        <v>1</v>
-      </c>
-      <c r="M363" t="inlineStr"/>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="n">
-        <v>16.52</v>
-      </c>
-      <c r="C364" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="D364" t="n">
-        <v>16.52</v>
-      </c>
-      <c r="E364" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="F364" t="n">
-        <v>63813.0134</v>
-      </c>
-      <c r="G364" t="n">
-        <v>-60470847.70685637</v>
-      </c>
-      <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L364" t="n">
-        <v>1</v>
-      </c>
-      <c r="M364" t="inlineStr"/>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="C365" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="D365" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="E365" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="F365" t="n">
-        <v>90570.15700000001</v>
-      </c>
-      <c r="G365" t="n">
-        <v>-60470847.70685637</v>
-      </c>
-      <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L365" t="n">
-        <v>1</v>
-      </c>
-      <c r="M365" t="inlineStr"/>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="C366" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="D366" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="E366" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="F366" t="n">
-        <v>41405.8889</v>
-      </c>
-      <c r="G366" t="n">
-        <v>-60470847.70685637</v>
-      </c>
-      <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L366" t="n">
-        <v>1</v>
-      </c>
-      <c r="M366" t="inlineStr"/>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C367" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D367" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E367" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F367" t="n">
-        <v>8039.12</v>
-      </c>
-      <c r="G367" t="n">
-        <v>-60478886.82685637</v>
-      </c>
-      <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L367" t="n">
-        <v>1</v>
-      </c>
-      <c r="M367" t="inlineStr"/>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="C368" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="D368" t="n">
-        <v>16.55</v>
-      </c>
-      <c r="E368" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="F368" t="n">
-        <v>505483.2063</v>
-      </c>
-      <c r="G368" t="n">
-        <v>-59973403.62055637</v>
-      </c>
-      <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L368" t="n">
-        <v>1</v>
-      </c>
-      <c r="M368" t="inlineStr"/>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="C369" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="D369" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="E369" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="F369" t="n">
-        <v>11464.7</v>
-      </c>
-      <c r="G369" t="n">
-        <v>-59961938.92055637</v>
-      </c>
-      <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L369" t="n">
-        <v>1</v>
-      </c>
-      <c r="M369" t="inlineStr"/>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="C370" t="n">
-        <v>16.55</v>
-      </c>
-      <c r="D370" t="n">
-        <v>16.56</v>
-      </c>
-      <c r="E370" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="F370" t="n">
-        <v>88474.7934</v>
-      </c>
-      <c r="G370" t="n">
-        <v>-59873464.12715637</v>
-      </c>
-      <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L370" t="n">
-        <v>1</v>
-      </c>
-      <c r="M370" t="inlineStr"/>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="n">
-        <v>16.55</v>
-      </c>
-      <c r="C371" t="n">
-        <v>16.55</v>
-      </c>
-      <c r="D371" t="n">
-        <v>16.55</v>
-      </c>
-      <c r="E371" t="n">
-        <v>16.55</v>
-      </c>
-      <c r="F371" t="n">
-        <v>11921.03</v>
-      </c>
-      <c r="G371" t="n">
-        <v>-59873464.12715637</v>
-      </c>
-      <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L371" t="n">
-        <v>1</v>
-      </c>
-      <c r="M371" t="inlineStr"/>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="n">
-        <v>16.55</v>
-      </c>
-      <c r="C372" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="D372" t="n">
-        <v>16.55</v>
-      </c>
-      <c r="E372" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="F372" t="n">
-        <v>468582.6378</v>
-      </c>
-      <c r="G372" t="n">
-        <v>-60342046.76495637</v>
-      </c>
-      <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L372" t="n">
-        <v>1</v>
-      </c>
-      <c r="M372" t="inlineStr"/>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="C373" t="n">
-        <v>16.55</v>
-      </c>
-      <c r="D373" t="n">
-        <v>16.55</v>
-      </c>
-      <c r="E373" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="F373" t="n">
-        <v>196299.4368</v>
-      </c>
-      <c r="G373" t="n">
-        <v>-60145747.32815637</v>
-      </c>
-      <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L373" t="n">
-        <v>1</v>
-      </c>
-      <c r="M373" t="inlineStr"/>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B374" t="n">
-        <v>16.55</v>
-      </c>
-      <c r="C374" t="n">
-        <v>16.55</v>
-      </c>
-      <c r="D374" t="n">
-        <v>16.55</v>
-      </c>
-      <c r="E374" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="F374" t="n">
-        <v>37519.6925</v>
-      </c>
-      <c r="G374" t="n">
-        <v>-60145747.32815637</v>
-      </c>
-      <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L374" t="n">
-        <v>1</v>
-      </c>
-      <c r="M374" t="inlineStr"/>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="n">
-        <v>16.56</v>
-      </c>
-      <c r="C375" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="D375" t="n">
-        <v>16.56</v>
-      </c>
-      <c r="E375" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="F375" t="n">
-        <v>171672.4706</v>
-      </c>
-      <c r="G375" t="n">
-        <v>-60317419.79875637</v>
-      </c>
-      <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L375" t="n">
-        <v>1</v>
-      </c>
-      <c r="M375" t="inlineStr"/>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B376" t="n">
-        <v>16.56</v>
-      </c>
-      <c r="C376" t="n">
-        <v>16.56</v>
-      </c>
-      <c r="D376" t="n">
-        <v>16.56</v>
-      </c>
-      <c r="E376" t="n">
-        <v>16.56</v>
-      </c>
-      <c r="F376" t="n">
-        <v>662.3959</v>
-      </c>
-      <c r="G376" t="n">
-        <v>-60316757.40285636</v>
-      </c>
-      <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L376" t="n">
-        <v>1</v>
-      </c>
-      <c r="M376" t="inlineStr"/>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B377" t="n">
-        <v>16.55</v>
-      </c>
-      <c r="C377" t="n">
-        <v>16.55</v>
-      </c>
-      <c r="D377" t="n">
-        <v>16.55</v>
-      </c>
-      <c r="E377" t="n">
-        <v>16.55</v>
-      </c>
-      <c r="F377" t="n">
-        <v>108337.191</v>
-      </c>
-      <c r="G377" t="n">
-        <v>-60425094.59385636</v>
-      </c>
-      <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L377" t="n">
-        <v>1</v>
-      </c>
-      <c r="M377" t="inlineStr"/>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B378" t="n">
-        <v>16.55</v>
-      </c>
-      <c r="C378" t="n">
-        <v>16.55</v>
-      </c>
-      <c r="D378" t="n">
-        <v>16.55</v>
-      </c>
-      <c r="E378" t="n">
-        <v>16.55</v>
-      </c>
-      <c r="F378" t="n">
-        <v>192676.103</v>
-      </c>
-      <c r="G378" t="n">
-        <v>-60425094.59385636</v>
-      </c>
-      <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L378" t="n">
-        <v>1</v>
-      </c>
-      <c r="M378" t="inlineStr"/>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="n">
-        <v>16.55</v>
-      </c>
-      <c r="C379" t="n">
-        <v>16.56</v>
-      </c>
-      <c r="D379" t="n">
-        <v>16.56</v>
-      </c>
-      <c r="E379" t="n">
-        <v>16.55</v>
-      </c>
-      <c r="F379" t="n">
-        <v>183278.3257</v>
-      </c>
-      <c r="G379" t="n">
-        <v>-60241816.26815636</v>
-      </c>
-      <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L379" t="n">
-        <v>1</v>
-      </c>
-      <c r="M379" t="inlineStr"/>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
-        <v>378</v>
-      </c>
-      <c r="B380" t="n">
-        <v>16.55</v>
-      </c>
-      <c r="C380" t="n">
-        <v>16.52</v>
-      </c>
-      <c r="D380" t="n">
-        <v>16.55</v>
-      </c>
-      <c r="E380" t="n">
-        <v>16.52</v>
-      </c>
-      <c r="F380" t="n">
-        <v>88228.8238</v>
-      </c>
-      <c r="G380" t="n">
-        <v>-60330045.09195636</v>
-      </c>
-      <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L380" t="n">
-        <v>1</v>
-      </c>
-      <c r="M380" t="inlineStr"/>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="B381" t="n">
-        <v>16.56</v>
-      </c>
-      <c r="C381" t="n">
-        <v>16.57</v>
-      </c>
-      <c r="D381" t="n">
-        <v>16.57</v>
-      </c>
-      <c r="E381" t="n">
-        <v>16.56</v>
-      </c>
-      <c r="F381" t="n">
-        <v>55368.72261816</v>
-      </c>
-      <c r="G381" t="n">
-        <v>-60274676.3693382</v>
-      </c>
-      <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L381" t="n">
-        <v>1</v>
-      </c>
-      <c r="M381" t="inlineStr"/>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
-        <v>380</v>
-      </c>
-      <c r="B382" t="n">
-        <v>16.57</v>
-      </c>
-      <c r="C382" t="n">
-        <v>16.52</v>
-      </c>
-      <c r="D382" t="n">
-        <v>16.57</v>
-      </c>
-      <c r="E382" t="n">
-        <v>16.52</v>
-      </c>
-      <c r="F382" t="n">
-        <v>2446.1678</v>
-      </c>
-      <c r="G382" t="n">
-        <v>-60277122.5371382</v>
-      </c>
-      <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
-      <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L382" t="n">
-        <v>1</v>
-      </c>
-      <c r="M382" t="inlineStr"/>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
-        <v>381</v>
-      </c>
-      <c r="B383" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="C383" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="D383" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="E383" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="F383" t="n">
-        <v>7524.4848</v>
-      </c>
-      <c r="G383" t="n">
-        <v>-60269598.0523382</v>
-      </c>
-      <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
-      <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L383" t="n">
-        <v>1</v>
-      </c>
-      <c r="M383" t="inlineStr"/>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="B384" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="C384" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="D384" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="E384" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="F384" t="n">
-        <v>575.2764</v>
-      </c>
-      <c r="G384" t="n">
-        <v>-60269598.0523382</v>
-      </c>
-      <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L384" t="n">
-        <v>1</v>
-      </c>
-      <c r="M384" t="inlineStr"/>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
-        <v>383</v>
-      </c>
-      <c r="B385" t="n">
-        <v>16.56</v>
-      </c>
-      <c r="C385" t="n">
-        <v>16.56</v>
-      </c>
-      <c r="D385" t="n">
-        <v>16.56</v>
-      </c>
-      <c r="E385" t="n">
-        <v>16.56</v>
-      </c>
-      <c r="F385" t="n">
-        <v>603.86473429</v>
-      </c>
-      <c r="G385" t="n">
-        <v>-60268994.18760391</v>
-      </c>
-      <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
-      <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L385" t="n">
-        <v>1</v>
-      </c>
-      <c r="M385" t="inlineStr"/>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
-        <v>384</v>
-      </c>
-      <c r="B386" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="C386" t="n">
-        <v>16.56</v>
-      </c>
-      <c r="D386" t="n">
-        <v>16.56</v>
-      </c>
-      <c r="E386" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="F386" t="n">
-        <v>26105.0018</v>
-      </c>
-      <c r="G386" t="n">
-        <v>-60268994.18760391</v>
-      </c>
-      <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
-      <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L386" t="n">
-        <v>1</v>
-      </c>
-      <c r="M386" t="inlineStr"/>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
-        <v>385</v>
-      </c>
-      <c r="B387" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="C387" t="n">
-        <v>16.55</v>
-      </c>
-      <c r="D387" t="n">
-        <v>16.55</v>
-      </c>
-      <c r="E387" t="n">
-        <v>16.53</v>
-      </c>
-      <c r="F387" t="n">
-        <v>89168.7503</v>
-      </c>
-      <c r="G387" t="n">
-        <v>-60358162.9379039</v>
-      </c>
-      <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
-      <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L387" t="n">
-        <v>1</v>
-      </c>
-      <c r="M387" t="inlineStr"/>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
-        <v>386</v>
-      </c>
-      <c r="B388" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="C388" t="n">
-        <v>16.52</v>
-      </c>
-      <c r="D388" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="E388" t="n">
-        <v>16.52</v>
-      </c>
-      <c r="F388" t="n">
-        <v>280016.2315</v>
-      </c>
-      <c r="G388" t="n">
-        <v>-60638179.1694039</v>
-      </c>
-      <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
-      <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L388" t="n">
-        <v>1</v>
-      </c>
-      <c r="M388" t="inlineStr"/>
-    </row>
-    <row r="389">
-      <c r="A389" s="1" t="n">
-        <v>387</v>
-      </c>
-      <c r="B389" t="n">
-        <v>16.52</v>
-      </c>
-      <c r="C389" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D389" t="n">
-        <v>16.52</v>
-      </c>
-      <c r="E389" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F389" t="n">
-        <v>140807.5086</v>
-      </c>
-      <c r="G389" t="n">
-        <v>-60778986.6780039</v>
-      </c>
-      <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
-      <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L389" t="n">
-        <v>1</v>
-      </c>
-      <c r="M389" t="inlineStr"/>
-    </row>
-    <row r="390">
-      <c r="A390" s="1" t="n">
-        <v>388</v>
-      </c>
-      <c r="B390" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C390" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D390" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E390" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F390" t="n">
-        <v>11897.5721</v>
-      </c>
-      <c r="G390" t="n">
-        <v>-60778986.6780039</v>
-      </c>
-      <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L390" t="n">
-        <v>1</v>
-      </c>
-      <c r="M390" t="inlineStr"/>
-    </row>
-    <row r="391">
-      <c r="A391" s="1" t="n">
-        <v>389</v>
-      </c>
-      <c r="B391" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="C391" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D391" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="E391" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F391" t="n">
-        <v>228197</v>
-      </c>
-      <c r="G391" t="n">
-        <v>-60778986.6780039</v>
-      </c>
-      <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L391" t="n">
-        <v>1</v>
-      </c>
-      <c r="M391" t="inlineStr"/>
-    </row>
-    <row r="392">
-      <c r="A392" s="1" t="n">
-        <v>390</v>
-      </c>
-      <c r="B392" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C392" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D392" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E392" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F392" t="n">
-        <v>120130.5235</v>
-      </c>
-      <c r="G392" t="n">
-        <v>-60778986.6780039</v>
-      </c>
-      <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L392" t="n">
-        <v>1</v>
-      </c>
-      <c r="M392" t="inlineStr"/>
-    </row>
-    <row r="393">
-      <c r="A393" s="1" t="n">
-        <v>391</v>
-      </c>
-      <c r="B393" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C393" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D393" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E393" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F393" t="n">
-        <v>20039.9821</v>
-      </c>
-      <c r="G393" t="n">
-        <v>-60778986.6780039</v>
-      </c>
-      <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L393" t="n">
-        <v>1</v>
-      </c>
-      <c r="M393" t="inlineStr"/>
-    </row>
-    <row r="394">
-      <c r="A394" s="1" t="n">
-        <v>392</v>
-      </c>
-      <c r="B394" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="C394" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D394" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="E394" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F394" t="n">
-        <v>256349.5054</v>
-      </c>
-      <c r="G394" t="n">
-        <v>-60778986.6780039</v>
-      </c>
-      <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L394" t="n">
-        <v>1</v>
-      </c>
-      <c r="M394" t="inlineStr"/>
-    </row>
-    <row r="395">
-      <c r="A395" s="1" t="n">
-        <v>393</v>
-      </c>
-      <c r="B395" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="C395" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="D395" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="E395" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="F395" t="n">
-        <v>2478.9908</v>
-      </c>
-      <c r="G395" t="n">
-        <v>-60776507.6872039</v>
-      </c>
-      <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L395" t="n">
-        <v>1</v>
-      </c>
-      <c r="M395" t="inlineStr"/>
-    </row>
-    <row r="396">
-      <c r="A396" s="1" t="n">
-        <v>394</v>
-      </c>
-      <c r="B396" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C396" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D396" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E396" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F396" t="n">
-        <v>108324.2686</v>
-      </c>
-      <c r="G396" t="n">
-        <v>-60884831.9558039</v>
-      </c>
-      <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L396" t="n">
-        <v>1</v>
-      </c>
-      <c r="M396" t="inlineStr"/>
-    </row>
-    <row r="397">
-      <c r="A397" s="1" t="n">
-        <v>395</v>
-      </c>
-      <c r="B397" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C397" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D397" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E397" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F397" t="n">
-        <v>100880.5999</v>
-      </c>
-      <c r="G397" t="n">
-        <v>-60884831.9558039</v>
-      </c>
-      <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L397" t="n">
-        <v>1</v>
-      </c>
-      <c r="M397" t="inlineStr"/>
-    </row>
-    <row r="398">
-      <c r="A398" s="1" t="n">
-        <v>396</v>
-      </c>
-      <c r="B398" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C398" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D398" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E398" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F398" t="n">
-        <v>16225.3595</v>
-      </c>
-      <c r="G398" t="n">
-        <v>-60884831.9558039</v>
-      </c>
-      <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L398" t="n">
-        <v>1</v>
-      </c>
-      <c r="M398" t="inlineStr"/>
-    </row>
-    <row r="399">
-      <c r="A399" s="1" t="n">
-        <v>397</v>
-      </c>
-      <c r="B399" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C399" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D399" t="n">
-        <v>16.52</v>
-      </c>
-      <c r="E399" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F399" t="n">
-        <v>151267.3413</v>
-      </c>
-      <c r="G399" t="n">
-        <v>-60884831.9558039</v>
-      </c>
-      <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L399" t="n">
-        <v>1</v>
-      </c>
-      <c r="M399" t="inlineStr"/>
-    </row>
-    <row r="400">
-      <c r="A400" s="1" t="n">
-        <v>398</v>
-      </c>
-      <c r="B400" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C400" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D400" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E400" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F400" t="n">
-        <v>4565.4965</v>
-      </c>
-      <c r="G400" t="n">
-        <v>-60884831.9558039</v>
-      </c>
-      <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L400" t="n">
-        <v>1</v>
-      </c>
-      <c r="M400" t="inlineStr"/>
-    </row>
-    <row r="401">
-      <c r="A401" s="1" t="n">
-        <v>399</v>
-      </c>
-      <c r="B401" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="C401" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="D401" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="E401" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="F401" t="n">
-        <v>62785.2912</v>
-      </c>
-      <c r="G401" t="n">
-        <v>-60822046.6646039</v>
-      </c>
-      <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L401" t="n">
-        <v>1</v>
-      </c>
-      <c r="M401" t="inlineStr"/>
-    </row>
-    <row r="402">
-      <c r="A402" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="B402" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="C402" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="D402" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="E402" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="F402" t="n">
-        <v>132263.6767</v>
-      </c>
-      <c r="G402" t="n">
-        <v>-60822046.6646039</v>
-      </c>
-      <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L402" t="n">
-        <v>1</v>
-      </c>
-      <c r="M402" t="inlineStr"/>
-    </row>
-    <row r="403">
-      <c r="A403" s="1" t="n">
-        <v>401</v>
-      </c>
-      <c r="B403" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="C403" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="D403" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="E403" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="F403" t="n">
-        <v>31168.2718</v>
-      </c>
-      <c r="G403" t="n">
-        <v>-60822046.6646039</v>
-      </c>
-      <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L403" t="n">
-        <v>1</v>
-      </c>
-      <c r="M403" t="inlineStr"/>
-    </row>
-    <row r="404">
-      <c r="A404" s="1" t="n">
-        <v>402</v>
-      </c>
-      <c r="B404" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="C404" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="D404" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="E404" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="F404" t="n">
-        <v>4561.369</v>
-      </c>
-      <c r="G404" t="n">
-        <v>-60822046.6646039</v>
-      </c>
-      <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L404" t="n">
-        <v>1</v>
-      </c>
-      <c r="M404" t="inlineStr"/>
-    </row>
-    <row r="405">
-      <c r="A405" s="1" t="n">
-        <v>403</v>
-      </c>
-      <c r="B405" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="C405" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="D405" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="E405" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="F405" t="n">
-        <v>1047777.6712</v>
-      </c>
-      <c r="G405" t="n">
-        <v>-60822046.6646039</v>
-      </c>
-      <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L405" t="n">
-        <v>1</v>
-      </c>
-      <c r="M405" t="inlineStr"/>
-    </row>
-    <row r="406">
-      <c r="A406" s="1" t="n">
-        <v>404</v>
-      </c>
-      <c r="B406" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="C406" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="D406" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="E406" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="F406" t="n">
-        <v>38279.6434</v>
-      </c>
-      <c r="G406" t="n">
-        <v>-60822046.6646039</v>
-      </c>
-      <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L406" t="n">
-        <v>1</v>
-      </c>
-      <c r="M406" t="inlineStr"/>
-    </row>
-    <row r="407">
-      <c r="A407" s="1" t="n">
-        <v>405</v>
-      </c>
-      <c r="B407" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="C407" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="D407" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="E407" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="F407" t="n">
-        <v>43410.3558</v>
-      </c>
-      <c r="G407" t="n">
-        <v>-60822046.6646039</v>
-      </c>
-      <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L407" t="n">
-        <v>1</v>
-      </c>
-      <c r="M407" t="inlineStr"/>
-    </row>
-    <row r="408">
-      <c r="A408" s="1" t="n">
-        <v>406</v>
-      </c>
-      <c r="B408" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="C408" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="D408" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="E408" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="F408" t="n">
-        <v>392396.6892</v>
-      </c>
-      <c r="G408" t="n">
-        <v>-60822046.6646039</v>
-      </c>
-      <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L408" t="n">
-        <v>1</v>
-      </c>
-      <c r="M408" t="inlineStr"/>
-    </row>
-    <row r="409">
-      <c r="A409" s="1" t="n">
-        <v>407</v>
-      </c>
-      <c r="B409" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="C409" t="n">
-        <v>16.52</v>
-      </c>
-      <c r="D409" t="n">
-        <v>16.52</v>
-      </c>
-      <c r="E409" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="F409" t="n">
-        <v>79707.0307</v>
-      </c>
-      <c r="G409" t="n">
-        <v>-60742339.63390391</v>
-      </c>
-      <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L409" t="n">
-        <v>1</v>
-      </c>
-      <c r="M409" t="inlineStr"/>
-    </row>
-    <row r="410">
-      <c r="A410" s="1" t="n">
-        <v>408</v>
-      </c>
-      <c r="B410" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="C410" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="D410" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="E410" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="F410" t="n">
-        <v>232419.0515</v>
-      </c>
-      <c r="G410" t="n">
-        <v>-60974758.68540391</v>
-      </c>
-      <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L410" t="n">
-        <v>1</v>
-      </c>
-      <c r="M410" t="inlineStr"/>
-    </row>
-    <row r="411">
-      <c r="A411" s="1" t="n">
-        <v>409</v>
-      </c>
-      <c r="B411" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="C411" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="D411" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="E411" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="F411" t="n">
-        <v>5645.095</v>
-      </c>
-      <c r="G411" t="n">
-        <v>-60974758.68540391</v>
-      </c>
-      <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L411" t="n">
-        <v>1</v>
-      </c>
-      <c r="M411" t="inlineStr"/>
-    </row>
-    <row r="412">
-      <c r="A412" s="1" t="n">
-        <v>410</v>
-      </c>
-      <c r="B412" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="C412" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="D412" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="E412" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="F412" t="n">
-        <v>174166.2784</v>
-      </c>
-      <c r="G412" t="n">
-        <v>-60974758.68540391</v>
-      </c>
-      <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L412" t="n">
-        <v>1</v>
-      </c>
-      <c r="M412" t="inlineStr"/>
-    </row>
-    <row r="413">
-      <c r="A413" s="1" t="n">
-        <v>411</v>
-      </c>
-      <c r="B413" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="C413" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D413" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="E413" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F413" t="n">
-        <v>98540.8285</v>
-      </c>
-      <c r="G413" t="n">
-        <v>-61073299.51390391</v>
-      </c>
-      <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L413" t="n">
-        <v>1</v>
-      </c>
-      <c r="M413" t="inlineStr"/>
-    </row>
-    <row r="414">
-      <c r="A414" s="1" t="n">
-        <v>412</v>
-      </c>
-      <c r="B414" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="C414" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="D414" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E414" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="F414" t="n">
-        <v>105068.1939</v>
-      </c>
-      <c r="G414" t="n">
-        <v>-61178367.70780391</v>
-      </c>
-      <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L414" t="n">
-        <v>1</v>
-      </c>
-      <c r="M414" t="inlineStr"/>
-    </row>
-    <row r="415">
-      <c r="A415" s="1" t="n">
-        <v>413</v>
-      </c>
-      <c r="B415" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="C415" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="D415" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="E415" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="F415" t="n">
-        <v>5096.3464</v>
-      </c>
-      <c r="G415" t="n">
-        <v>-61173271.3614039</v>
-      </c>
-      <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L415" t="n">
-        <v>1</v>
-      </c>
-      <c r="M415" t="inlineStr"/>
-    </row>
-    <row r="416">
-      <c r="A416" s="1" t="n">
-        <v>414</v>
-      </c>
-      <c r="B416" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="C416" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="D416" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="E416" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="F416" t="n">
-        <v>25491.8987</v>
-      </c>
-      <c r="G416" t="n">
-        <v>-61198763.2601039</v>
-      </c>
-      <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L416" t="n">
-        <v>1</v>
-      </c>
-      <c r="M416" t="inlineStr"/>
-    </row>
-    <row r="417">
-      <c r="A417" s="1" t="n">
-        <v>415</v>
-      </c>
-      <c r="B417" t="n">
-        <v>16.47</v>
-      </c>
-      <c r="C417" t="n">
-        <v>16.47</v>
-      </c>
-      <c r="D417" t="n">
-        <v>16.47</v>
-      </c>
-      <c r="E417" t="n">
-        <v>16.47</v>
-      </c>
-      <c r="F417" t="n">
-        <v>110770.8304</v>
-      </c>
-      <c r="G417" t="n">
-        <v>-61309534.0905039</v>
-      </c>
-      <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L417" t="n">
-        <v>1</v>
-      </c>
-      <c r="M417" t="inlineStr"/>
-    </row>
-    <row r="418">
-      <c r="A418" s="1" t="n">
-        <v>416</v>
-      </c>
-      <c r="B418" t="n">
-        <v>16.46</v>
-      </c>
-      <c r="C418" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="D418" t="n">
-        <v>16.46</v>
-      </c>
-      <c r="E418" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="F418" t="n">
-        <v>70063.9436</v>
-      </c>
-      <c r="G418" t="n">
-        <v>-61379598.0341039</v>
-      </c>
-      <c r="H418" t="n">
-        <v>1</v>
-      </c>
-      <c r="I418" t="n">
-        <v>16.47</v>
-      </c>
-      <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14461,7 +14245,9 @@
       <c r="I419" t="n">
         <v>16.45</v>
       </c>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14500,7 +14286,9 @@
       <c r="I420" t="n">
         <v>16.47</v>
       </c>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14539,7 +14327,9 @@
       <c r="I421" t="n">
         <v>16.45</v>
       </c>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14578,7 +14368,9 @@
       <c r="I422" t="n">
         <v>16.47</v>
       </c>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14617,7 +14409,9 @@
       <c r="I423" t="n">
         <v>16.47</v>
       </c>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14656,7 +14450,9 @@
       <c r="I424" t="n">
         <v>16.46</v>
       </c>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14695,7 +14491,9 @@
       <c r="I425" t="n">
         <v>16.47</v>
       </c>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14734,7 +14532,9 @@
       <c r="I426" t="n">
         <v>16.48</v>
       </c>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14773,7 +14573,9 @@
       <c r="I427" t="n">
         <v>16.5</v>
       </c>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14812,7 +14614,9 @@
       <c r="I428" t="n">
         <v>16.5</v>
       </c>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14851,7 +14655,9 @@
       <c r="I429" t="n">
         <v>16.51</v>
       </c>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14885,10 +14691,14 @@
         <v>-60864246.21202507</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
-      <c r="J430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>16.53</v>
+      </c>
+      <c r="J430" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14922,10 +14732,14 @@
         <v>-61488303.02172507</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
-      </c>
-      <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I431" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="J431" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14962,7 +14776,9 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14999,7 +14815,9 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15036,7 +14854,9 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15073,7 +14893,9 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15110,7 +14932,9 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15147,7 +14971,9 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15184,7 +15010,9 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15221,7 +15049,9 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15258,7 +15088,9 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15295,7 +15127,9 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15332,7 +15166,9 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15369,7 +15205,9 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15406,7 +15244,9 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15443,7 +15283,9 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15480,7 +15322,9 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15517,7 +15361,9 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15554,7 +15400,9 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15591,7 +15439,9 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15628,7 +15478,9 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15665,7 +15517,9 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15702,7 +15556,9 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15739,7 +15595,9 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15776,7 +15634,9 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15813,7 +15673,9 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15850,7 +15712,9 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15884,10 +15748,14 @@
         <v>-61671171.65943693</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="J457" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15921,10 +15789,14 @@
         <v>-61096159.31553693</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="J458" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15958,10 +15830,14 @@
         <v>-61416392.97703741</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J459" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15995,10 +15871,14 @@
         <v>-61416392.97703741</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="J460" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16032,10 +15912,14 @@
         <v>-61416362.65553741</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>16.47</v>
+      </c>
+      <c r="J461" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16069,10 +15953,14 @@
         <v>-61416262.65553741</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="J462" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16106,10 +15994,14 @@
         <v>-61423209.66113741</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J463" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16143,10 +16035,14 @@
         <v>-61416545.17123741</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="J464" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16180,10 +16076,14 @@
         <v>-61416861.22683741</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J465" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16217,10 +16117,14 @@
         <v>-61416861.22683741</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="J466" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16254,10 +16158,14 @@
         <v>-61414480.25523741</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>16.49</v>
+      </c>
+      <c r="J467" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16291,10 +16199,14 @@
         <v>-61381965.02540254</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>16.52</v>
+      </c>
+      <c r="J468" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16328,10 +16240,14 @@
         <v>-61381965.02540254</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>16.56</v>
+      </c>
+      <c r="J469" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16368,7 +16284,9 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16405,7 +16323,9 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16442,7 +16362,9 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16479,7 +16401,9 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16516,7 +16440,9 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16553,7 +16479,9 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16590,7 +16518,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16627,7 +16557,9 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16664,7 +16596,9 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16701,7 +16635,9 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16738,7 +16674,9 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16775,7 +16713,9 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16812,7 +16752,9 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16849,7 +16791,9 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16886,7 +16830,9 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16923,7 +16869,9 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16960,7 +16908,9 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16997,7 +16947,9 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17034,7 +16986,9 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17071,7 +17025,9 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17108,7 +17064,9 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17145,7 +17103,9 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17182,7 +17142,9 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17219,7 +17181,9 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17256,7 +17220,9 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17293,7 +17259,9 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17330,7 +17298,9 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17367,7 +17337,9 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17404,7 +17376,9 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17441,7 +17415,9 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17478,7 +17454,9 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17512,16 +17490,20 @@
         <v>-60919523.99861182</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L501" t="inlineStr"/>
+      <c r="L501" t="n">
+        <v>1</v>
+      </c>
       <c r="M501" t="inlineStr"/>
     </row>
     <row r="502">
@@ -17547,11 +17529,17 @@
         <v>-60773560.03448846</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17580,11 +17568,17 @@
         <v>-60773560.03448846</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17613,11 +17607,17 @@
         <v>-60749279.05078846</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17646,11 +17646,17 @@
         <v>-60749279.05078846</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17679,11 +17685,17 @@
         <v>-60750428.83018846</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17712,11 +17724,17 @@
         <v>-60736528.83018846</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17745,11 +17763,17 @@
         <v>-60749290.75088846</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17778,11 +17802,17 @@
         <v>-60749225.94278846</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17811,11 +17841,17 @@
         <v>-60771225.94278846</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17844,11 +17880,17 @@
         <v>-60771225.94278846</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17877,11 +17919,17 @@
         <v>-60771225.94278846</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17910,11 +17958,17 @@
         <v>-60771225.94278846</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17943,11 +17997,17 @@
         <v>-60771225.94278846</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17976,11 +18036,17 @@
         <v>-60774505.25278846</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18009,11 +18075,17 @@
         <v>-60816277.93468846</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18042,11 +18114,17 @@
         <v>-60940238.60178846</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18075,11 +18153,17 @@
         <v>-60940038.60178846</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18108,11 +18192,17 @@
         <v>-60939192.72018846</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18141,11 +18231,17 @@
         <v>-60954189.41468846</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18177,8 +18273,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18210,8 +18312,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18243,8 +18351,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18276,8 +18390,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18309,8 +18429,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18342,8 +18468,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18372,11 +18504,17 @@
         <v>-60954337.39798846</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18408,8 +18546,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18441,8 +18585,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18474,8 +18624,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18507,8 +18663,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18540,8 +18702,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18573,8 +18741,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18606,8 +18780,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18636,11 +18816,17 @@
         <v>-62113526.98408547</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18672,8 +18858,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18705,8 +18897,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18738,8 +18936,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18771,8 +18975,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18804,8 +19014,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18834,11 +19050,17 @@
         <v>-62358776.57118547</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18870,8 +19092,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18900,11 +19128,17 @@
         <v>-62350395.87478547</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18933,11 +19167,17 @@
         <v>-62350395.87478547</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18966,11 +19206,17 @@
         <v>-62283506.04498547</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18999,11 +19245,17 @@
         <v>-62283506.04498547</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19032,11 +19284,17 @@
         <v>-62283506.04498547</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19065,11 +19323,17 @@
         <v>-62283506.04498547</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19098,11 +19362,17 @@
         <v>-62283506.04498547</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19131,11 +19401,17 @@
         <v>-62283506.04498547</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19164,11 +19440,17 @@
         <v>-62283506.04498547</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19197,11 +19479,17 @@
         <v>-62271033.38878547</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19230,11 +19518,17 @@
         <v>-62531033.38878547</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19266,8 +19560,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19296,11 +19596,17 @@
         <v>-62475706.93278547</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19332,8 +19638,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19365,8 +19677,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19395,11 +19713,17 @@
         <v>-62467005.63278547</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19428,11 +19752,17 @@
         <v>-62467065.51308547</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19461,11 +19791,17 @@
         <v>-62392162.81188547</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19494,11 +19830,17 @@
         <v>-62019597.06018547</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19527,11 +19869,17 @@
         <v>-62003704.48548547</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19560,11 +19908,17 @@
         <v>-62003704.48548547</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19596,8 +19950,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19629,8 +19989,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19662,8 +20028,14 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19695,8 +20067,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19728,8 +20106,14 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19761,8 +20145,14 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19794,8 +20184,14 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19827,8 +20223,14 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19860,8 +20262,14 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19893,8 +20301,14 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19926,8 +20340,14 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19959,8 +20379,14 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19992,8 +20418,14 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20025,8 +20457,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20058,8 +20496,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20088,11 +20532,17 @@
         <v>-62152046.92058548</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20121,11 +20571,17 @@
         <v>-62135949.56838547</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20154,11 +20610,17 @@
         <v>-62150881.45958547</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20187,11 +20649,17 @@
         <v>-62150881.45958547</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20223,8 +20691,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20253,11 +20727,17 @@
         <v>-62162393.88868547</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20286,11 +20766,17 @@
         <v>-62166261.98908547</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20319,11 +20805,17 @@
         <v>-62152144.15058547</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20352,11 +20844,17 @@
         <v>-62152144.15058547</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20385,11 +20883,17 @@
         <v>-62303774.31208547</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20418,11 +20922,17 @@
         <v>-62303774.31208547</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20451,11 +20961,17 @@
         <v>-62303774.31208547</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20487,8 +21003,14 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20517,11 +21039,17 @@
         <v>-62268802.01668547</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20550,11 +21078,17 @@
         <v>-62291870.30348547</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20583,11 +21117,17 @@
         <v>-62291870.30348547</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20619,8 +21159,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20649,11 +21195,17 @@
         <v>-62214102.56498547</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20685,8 +21237,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20718,8 +21276,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20751,8 +21315,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20784,8 +21354,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20817,8 +21393,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20850,8 +21432,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20883,8 +21471,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20916,8 +21510,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20949,8 +21549,14 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20982,8 +21588,14 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21015,8 +21627,14 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21048,8 +21666,14 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21081,8 +21705,14 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21114,8 +21744,14 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21147,8 +21783,14 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21180,8 +21822,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21213,8 +21861,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21243,15 +21897,15 @@
         <v>-63616972.27728547</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
-      </c>
-      <c r="I614" t="n">
-        <v>16.59</v>
-      </c>
-      <c r="J614" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K614" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L614" t="n">
@@ -21282,12 +21936,12 @@
         <v>-63616850.28933367</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
-      </c>
-      <c r="I615" t="n">
-        <v>16.58</v>
-      </c>
-      <c r="J615" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21321,12 +21975,12 @@
         <v>-64969572.68583367</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
-      </c>
-      <c r="I616" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="J616" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21360,12 +22014,12 @@
         <v>-64969350.69788187</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
-      </c>
-      <c r="I617" t="n">
-        <v>16.58</v>
-      </c>
-      <c r="J617" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21402,7 +22056,9 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21436,12 +22092,12 @@
         <v>-66301860.43257633</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
-      </c>
-      <c r="I619" t="n">
-        <v>16.55</v>
-      </c>
-      <c r="J619" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21475,12 +22131,12 @@
         <v>-66969841.93367633</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
-      </c>
-      <c r="I620" t="n">
-        <v>16.59</v>
-      </c>
-      <c r="J620" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21514,12 +22170,12 @@
         <v>-66968234.06367633</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
-      </c>
-      <c r="I621" t="n">
-        <v>16.55</v>
-      </c>
-      <c r="J621" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21553,12 +22209,12 @@
         <v>-67032485.26147634</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
-      </c>
-      <c r="I622" t="n">
-        <v>16.59</v>
-      </c>
-      <c r="J622" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21595,7 +22251,9 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21629,12 +22287,12 @@
         <v>-66890390.04147634</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
-      </c>
-      <c r="I624" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="J624" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>16.48</v>
+      </c>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
